--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -209,66 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Variación anual del acumulado en lo que va de año. De 85 y más años_España</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve">2019SM01</t>
@@ -729,11 +669,13 @@
   </sheetPr>
   <dimension ref="A1:CE74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CF1" activeCellId="0" sqref="CF1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1965" topLeftCell="A52" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="BL1" activeCellId="0" sqref="BL1:CE1"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.42"/>
@@ -939,70 +881,10 @@
       <c r="BK1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="7" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="BM1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>137</v>
@@ -1071,9 +953,9 @@
         <v>-952</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>164</v>
@@ -1142,9 +1024,9 @@
         <v>-1286</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>160</v>
@@ -1213,9 +1095,9 @@
         <v>-1352</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>162</v>
@@ -1284,9 +1166,9 @@
         <v>-1338</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>151</v>
@@ -1355,9 +1237,9 @@
         <v>-1204</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>135</v>
@@ -1426,9 +1308,9 @@
         <v>-1474</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>133</v>
@@ -1497,9 +1379,9 @@
         <v>-1853</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>127</v>
@@ -1568,9 +1450,9 @@
         <v>-1980</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>112</v>
@@ -1639,9 +1521,9 @@
         <v>-2369</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>102</v>
@@ -1710,9 +1592,9 @@
         <v>-2769</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>133</v>
@@ -1781,9 +1663,9 @@
         <v>-3081</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>96</v>
@@ -1852,9 +1734,9 @@
         <v>-3482</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>116</v>
@@ -1923,9 +1805,9 @@
         <v>-3762</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>104</v>
@@ -1994,9 +1876,9 @@
         <v>-4057</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>121</v>
@@ -2065,9 +1947,9 @@
         <v>-4407</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>122</v>
@@ -2136,9 +2018,9 @@
         <v>-4583</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>110</v>
@@ -2207,9 +2089,9 @@
         <v>-4777</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>110</v>
@@ -2278,9 +2160,9 @@
         <v>-4643</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>117</v>
@@ -2349,9 +2231,9 @@
         <v>-4712</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>106</v>
@@ -2420,9 +2302,9 @@
         <v>-4765</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>119</v>
@@ -2491,9 +2373,9 @@
         <v>-4912</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>118</v>
@@ -2562,9 +2444,9 @@
         <v>-5017</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>104</v>
@@ -2633,9 +2515,9 @@
         <v>-4985</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>104</v>
@@ -2704,9 +2586,9 @@
         <v>-5098</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>102</v>
@@ -2775,9 +2657,9 @@
         <v>-5435</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>114</v>
@@ -2846,9 +2728,9 @@
         <v>-5617</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>133</v>
@@ -2917,9 +2799,9 @@
         <v>-5323</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>107</v>
@@ -2988,9 +2870,9 @@
         <v>-5352</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>100</v>
@@ -3059,9 +2941,9 @@
         <v>-5448</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>116</v>
@@ -3130,9 +3012,9 @@
         <v>-5370</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>82</v>
@@ -3201,9 +3083,9 @@
         <v>-5630</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>127</v>
@@ -3272,9 +3154,9 @@
         <v>-6003</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>107</v>
@@ -3343,9 +3225,9 @@
         <v>-6060</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>94</v>
@@ -3414,9 +3296,9 @@
         <v>-6338</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>101</v>
@@ -3485,9 +3367,9 @@
         <v>-6518</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>111</v>
@@ -3556,9 +3438,9 @@
         <v>-6807</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>103</v>
@@ -3627,9 +3509,9 @@
         <v>-7026</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>82</v>
@@ -3698,9 +3580,9 @@
         <v>-7250</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>114</v>
@@ -3769,9 +3651,9 @@
         <v>-7608</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>101</v>
@@ -3840,9 +3722,9 @@
         <v>-7832</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>92</v>
@@ -3911,9 +3793,9 @@
         <v>-8004</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>115</v>
@@ -3982,9 +3864,9 @@
         <v>-8311</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>98</v>
@@ -4053,9 +3935,9 @@
         <v>-8301</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>111</v>
@@ -4124,9 +4006,9 @@
         <v>-8487</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>115</v>
@@ -4195,9 +4077,9 @@
         <v>-8895</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>123</v>
@@ -4266,9 +4148,9 @@
         <v>-9014</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>119</v>
@@ -4337,9 +4219,9 @@
         <v>-8989</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>126</v>
@@ -4408,9 +4290,9 @@
         <v>-8974</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>102</v>
@@ -4479,9 +4361,9 @@
         <v>-9192</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>118</v>
@@ -4550,9 +4432,9 @@
         <v>-9399</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>121</v>
@@ -4621,9 +4503,9 @@
         <v>-9500</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>102</v>
@@ -4692,9 +4574,9 @@
         <v>-9858</v>
       </c>
     </row>
-    <row r="54" s="12" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B54" s="12" t="n">
         <v>134</v>
@@ -4943,9 +4825,9 @@
         <v>0.0232018561485026</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>158</v>
@@ -5194,9 +5076,9 @@
         <v>-2.20403709765412</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>142</v>
@@ -5445,9 +5327,9 @@
         <v>-3.82981686512082</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>141</v>
@@ -5696,9 +5578,9 @@
         <v>-4.58611240370198</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>122</v>
@@ -5947,9 +5829,9 @@
         <v>-4.84953274875468</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>134</v>
@@ -6198,9 +6080,9 @@
         <v>-4.87114913581951</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>114</v>
@@ -6449,9 +6331,9 @@
         <v>-4.9859676359945</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>128</v>
@@ -6700,9 +6582,9 @@
         <v>-5.82153943284053</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>119</v>
@@ -6951,9 +6833,9 @@
         <v>-6.22120360087895</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>120</v>
@@ -7202,9 +7084,9 @@
         <v>-5.75472917654156</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>112</v>
@@ -7453,9 +7335,9 @@
         <v>-4.38955567919879</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>117</v>
@@ -7704,9 +7586,9 @@
         <v>-0.116433799068527</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>137</v>
@@ -7955,9 +7837,9 @@
         <v>8.57256159588959</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>196</v>
@@ -8206,9 +8088,9 @@
         <v>18.8734490512319</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>181</v>
@@ -8457,9 +8339,9 @@
         <v>26.1828112841951</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>167</v>
@@ -8708,9 +8590,9 @@
         <v>29.5119871674446</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>152</v>
@@ -8959,9 +8841,9 @@
         <v>30.147754866856</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>127</v>
@@ -9210,9 +9092,9 @@
         <v>29.5206132389621</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>103</v>
@@ -9461,9 +9343,9 @@
         <v>28.7502805696187</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>109</v>
@@ -9712,9 +9594,9 @@
         <v>27.3387221950258</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>87</v>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones semanas" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,10 @@
     <sheet name="Defunciones grupos edad" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Defunciones acumuladas grupos edad" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Defunciones acumuladas grupos edad variación" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Defunciones 2019-2020" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Defunciones acumuladas 2019-2020" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Defunciones variación anual acumulado 2019-2020" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Defunciones variación anual acumulado sexo 2020" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="176">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -467,6 +471,93 @@
   </si>
   <si>
     <t xml:space="preserve">De 85 y más años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantabria 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantabria 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">España 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">España 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">España Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">España Mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantabria Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantabria Mujeres</t>
   </si>
 </sst>
 </file>
@@ -565,7 +656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,6 +718,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,7 +814,7 @@
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2280" topLeftCell="A43" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="E2:E22 B39"/>
       <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -8644,6 +8739,808 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E22 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>-22.16</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>-18.54</v>
+      </c>
+      <c r="D2" s="14" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>-2.68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>-15.92</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>-3.41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>-10.49</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>-5.69</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>-3.47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>-7.29</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>-8.42</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>-7.63</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>-6.19</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>-8.53</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>-3.61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>-5.62</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>-6.36</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>-9.26</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>-3.67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>-6.16</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>-4.15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>-6.89</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>-4.79</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>-5.05</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>-6.38</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>-2.91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>-6.42</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>-6.35</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>-7.61</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>-6.19</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>-5.62</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>24.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>-3.06321963936563</v>
+      </c>
+      <c r="C2" s="14" t="n">
+        <v>-2.29885057471264</v>
+      </c>
+      <c r="D2" s="14" t="n">
+        <v>-7.93650793650794</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>2.7027027027027</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>-4.02747424289729</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>-2.78913704519241</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>-4.72972972972973</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>-0.653594771241828</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>-3.72750642673522</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>-3.20145581990968</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>-5.48523206751055</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>-3.30428650581775</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>-4.4908826041091</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>-2.7027027027027</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>-11.9266055045872</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>-2.99386701097483</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>-4.49478748997594</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>-5.46448087431694</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>-13.9705882352941</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>-3.14439946018893</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>-4.07594086021506</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>-5.42452830188679</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>-11.1340206185567</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>-3.12409014150119</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>-4.21376885298306</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>-6.12244897959183</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>-12.1376811594203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>-3.68239946587232</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>-4.6252402306214</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>-6.63082437275986</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>-9.49263502454992</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>-4.3581252012327</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>-5.21841304948852</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>-5.7784911717496</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>-7.90273556231003</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>-3.76408134261291</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>-4.83129317403993</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>-3.27380952380952</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>-6.75105485232067</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>-2.04179909467399</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>-3.78277081200131</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>-3.5374149659864</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>-8.32266325224071</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>2.97077400706562</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>-0.0952346726083464</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>-2.78128950695322</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>-5.96833130328868</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>12.9451235716184</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>8.04405035283864</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>-0.117924528301883</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>-5.56818181818182</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>21.9610403743606</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>17.2259332023576</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>4.55049944506105</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>0.214822771213741</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>26.4416622891496</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>23.890906395909</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>7.56476683937823</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>3.03643724696356</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>28.1305662565759</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>26.8437570051558</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>9.49119373776908</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>4.84330484330484</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>27.9310750873337</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>27.5751444317244</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>11.9402985074627</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>5.57053009883199</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>27.1371992228366</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>26.9989747224789</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>11.790780141844</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>6.34104541559555</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>26.1370786783649</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>26.4723644796599</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>10.042194092827</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>5.94947025264874</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>25.035224070539</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>25.2703701991958</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>9.03954802259888</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>6.56763096168882</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>23.9804650452945</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>24.3174666489385</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>7.01078582434516</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>5.45182972367437</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -8652,31 +9549,34 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="E2:E22 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9182,31 +10082,34 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="E2:E22 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9712,31 +10615,34 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E22 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10242,28 +11148,31 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E2:E22 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10706,28 +11615,31 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E2:E22 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11169,29 +12081,32 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E2:E22 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11613,6 +12528,546 @@
       </c>
       <c r="F22" s="11" t="n">
         <v>-0.362056480811002</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E22 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>133</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>116</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E22 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>301</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>461</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>623</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>774</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>909</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>1281</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1832</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>2185</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>2295</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>2412</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2518</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2637</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2801</v>
       </c>
     </row>
   </sheetData>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones semanas" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,8 +15,8 @@
     <sheet name="Defunciones grupos edad" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Defunciones acumuladas grupos edad" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Defunciones acumuladas grupos edad variación" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Defunciones 2019-2020" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Defunciones acumuladas 2019-2020" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Defunciones 2020" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Defunciones acumuladas 2020" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Defunciones variación anual acumulado 2019-2020" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Defunciones variación anual acumulado sexo 2020" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="179">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -473,76 +473,85 @@
     <t xml:space="preserve">De 85 y más años</t>
   </si>
   <si>
+    <t xml:space="preserve">Hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujeres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cantabria 2019</t>
   </si>
   <si>
+    <t xml:space="preserve">España 2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cantabria 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">España 2019</t>
   </si>
   <si>
     <t xml:space="preserve">España 2020</t>
@@ -656,7 +665,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,6 +739,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -814,7 +831,7 @@
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2280" topLeftCell="A43" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="E2:E22 B39"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
       <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -8747,15 +8764,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,16 +8782,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9150,27 +9169,30 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9549,7 +9571,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="E2:E22 D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10082,7 +10104,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="E2:E22 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10615,7 +10637,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E22 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11148,7 +11170,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E2:E22 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11615,7 +11637,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E2:E22 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12082,7 +12104,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E2:E22 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12549,13 +12571,15 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E2:E22 A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12573,209 +12597,209 @@
       <c r="A2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>137</v>
+      <c r="B2" s="12" t="n">
+        <v>58</v>
       </c>
       <c r="C2" s="12" t="n">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>164</v>
+      <c r="B3" s="1" t="n">
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>160</v>
+      <c r="B4" s="1" t="n">
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>162</v>
+      <c r="B5" s="1" t="n">
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>141</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>151</v>
+      <c r="B6" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>135</v>
+      <c r="B7" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>133</v>
+      <c r="B8" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>114</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>127</v>
+      <c r="B9" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>112</v>
+      <c r="B10" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>119</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>102</v>
+      <c r="B11" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>133</v>
+      <c r="B12" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>96</v>
+      <c r="B13" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>116</v>
+      <c r="B14" s="1" t="n">
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>104</v>
+      <c r="B15" s="1" t="n">
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>196</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>121</v>
+      <c r="B16" s="1" t="n">
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>181</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>122</v>
+      <c r="B17" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>167</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>110</v>
+      <c r="B18" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>152</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>110</v>
+      <c r="B19" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>127</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>117</v>
+      <c r="B20" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12783,10 +12807,10 @@
         <v>168</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12794,10 +12818,10 @@
         <v>169</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -12816,16 +12840,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E22 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12838,15 +12864,21 @@
       <c r="C1" s="0" t="s">
         <v>148</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="9" t="n">
-        <v>137</v>
-      </c>
-      <c r="C2" s="13" t="n">
+      <c r="B2" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" s="13" t="n">
         <v>134</v>
       </c>
     </row>
@@ -12854,10 +12886,13 @@
       <c r="A3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>301</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="19" t="n">
+        <v>141</v>
+      </c>
+      <c r="C3" s="19" t="n">
+        <v>152</v>
+      </c>
+      <c r="D3" s="20" t="n">
         <v>293</v>
       </c>
     </row>
@@ -12865,10 +12900,13 @@
       <c r="A4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>461</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="19" t="n">
+        <v>210</v>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>224</v>
+      </c>
+      <c r="D4" s="20" t="n">
         <v>435</v>
       </c>
     </row>
@@ -12876,10 +12914,13 @@
       <c r="A5" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>623</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="19" t="n">
+        <v>288</v>
+      </c>
+      <c r="C5" s="19" t="n">
+        <v>288</v>
+      </c>
+      <c r="D5" s="20" t="n">
         <v>575</v>
       </c>
     </row>
@@ -12887,10 +12928,13 @@
       <c r="A6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>774</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="19" t="n">
+        <v>346</v>
+      </c>
+      <c r="C6" s="19" t="n">
+        <v>351</v>
+      </c>
+      <c r="D6" s="20" t="n">
         <v>697</v>
       </c>
     </row>
@@ -12898,10 +12942,13 @@
       <c r="A7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>909</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="19" t="n">
+        <v>401</v>
+      </c>
+      <c r="C7" s="19" t="n">
+        <v>431</v>
+      </c>
+      <c r="D7" s="20" t="n">
         <v>831</v>
       </c>
     </row>
@@ -12909,10 +12956,13 @@
       <c r="A8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>1042</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="19" t="n">
+        <v>460</v>
+      </c>
+      <c r="C8" s="19" t="n">
+        <v>485</v>
+      </c>
+      <c r="D8" s="20" t="n">
         <v>946</v>
       </c>
     </row>
@@ -12920,10 +12970,13 @@
       <c r="A9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>1169</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="19" t="n">
+        <v>521</v>
+      </c>
+      <c r="C9" s="19" t="n">
+        <v>553</v>
+      </c>
+      <c r="D9" s="20" t="n">
         <v>1074</v>
       </c>
     </row>
@@ -12931,10 +12984,13 @@
       <c r="A10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>1281</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="19" t="n">
+        <v>587</v>
+      </c>
+      <c r="C10" s="19" t="n">
+        <v>606</v>
+      </c>
+      <c r="D10" s="20" t="n">
         <v>1193</v>
       </c>
     </row>
@@ -12942,10 +12998,13 @@
       <c r="A11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>1383</v>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="19" t="n">
+        <v>650</v>
+      </c>
+      <c r="C11" s="19" t="n">
+        <v>663</v>
+      </c>
+      <c r="D11" s="20" t="n">
         <v>1313</v>
       </c>
     </row>
@@ -12953,10 +13012,13 @@
       <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>1516</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="19" t="n">
+        <v>709</v>
+      </c>
+      <c r="C12" s="19" t="n">
+        <v>716</v>
+      </c>
+      <c r="D12" s="20" t="n">
         <v>1425</v>
       </c>
     </row>
@@ -12964,10 +13026,13 @@
       <c r="A13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>1612</v>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="19" t="n">
+        <v>769</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>772</v>
+      </c>
+      <c r="D13" s="20" t="n">
         <v>1541</v>
       </c>
     </row>
@@ -12975,10 +13040,13 @@
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>1728</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="19" t="n">
+        <v>847</v>
+      </c>
+      <c r="C14" s="19" t="n">
+        <v>831</v>
+      </c>
+      <c r="D14" s="20" t="n">
         <v>1678</v>
       </c>
     </row>
@@ -12986,10 +13054,13 @@
       <c r="A15" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>1832</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="19" t="n">
+        <v>942</v>
+      </c>
+      <c r="C15" s="19" t="n">
+        <v>933</v>
+      </c>
+      <c r="D15" s="20" t="n">
         <v>1875</v>
       </c>
     </row>
@@ -12997,10 +13068,13 @@
       <c r="A16" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>1953</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="19" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C16" s="19" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D16" s="20" t="n">
         <v>2056</v>
       </c>
     </row>
@@ -13008,10 +13082,13 @@
       <c r="A17" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>2075</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="19" t="n">
+        <v>1119</v>
+      </c>
+      <c r="C17" s="19" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D17" s="20" t="n">
         <v>2223</v>
       </c>
     </row>
@@ -13019,10 +13096,13 @@
       <c r="A18" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="9" t="n">
-        <v>2185</v>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="B18" s="19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C18" s="19" t="n">
+        <v>1175</v>
+      </c>
+      <c r="D18" s="20" t="n">
         <v>2375</v>
       </c>
     </row>
@@ -13030,10 +13110,13 @@
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="9" t="n">
-        <v>2295</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="B19" s="19" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C19" s="19" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D19" s="20" t="n">
         <v>2502</v>
       </c>
     </row>
@@ -13041,10 +13124,13 @@
       <c r="A20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="9" t="n">
-        <v>2412</v>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="B20" s="19" t="n">
+        <v>1304</v>
+      </c>
+      <c r="C20" s="19" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D20" s="20" t="n">
         <v>2605</v>
       </c>
     </row>
@@ -13052,10 +13138,13 @@
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>2518</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="B21" s="19" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C21" s="19" t="n">
+        <v>1363</v>
+      </c>
+      <c r="D21" s="20" t="n">
         <v>2714</v>
       </c>
     </row>
@@ -13063,10 +13152,13 @@
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>2637</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="B22" s="19" t="n">
+        <v>1389</v>
+      </c>
+      <c r="C22" s="19" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D22" s="20" t="n">
         <v>2801</v>
       </c>
     </row>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones semanas" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="203">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -446,6 +446,36 @@
     <t xml:space="preserve">2020SM23</t>
   </si>
   <si>
+    <t xml:space="preserve">2020SM24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020SM33</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cantabria_Hombres</t>
   </si>
   <si>
@@ -552,6 +582,36 @@
   </si>
   <si>
     <t xml:space="preserve">SM23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM33</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -585,12 +645,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="MMM\-YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -677,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,11 +803,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,12 +904,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1785" topLeftCell="A46" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1785" topLeftCell="A58" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="T77" activeCellId="0" sqref="T77:U86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9131,6 +9204,1916 @@
         <v>23.4458749482577</v>
       </c>
     </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="C77" s="16" t="n">
+        <v>3097</v>
+      </c>
+      <c r="D77" s="16" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E77" s="16" t="n">
+        <v>6929</v>
+      </c>
+      <c r="F77" s="16" t="n">
+        <v>247929</v>
+      </c>
+      <c r="G77" s="16" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="H77" s="16" t="n">
+        <v>49</v>
+      </c>
+      <c r="I77" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="J77" s="16" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="K77" s="16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L77" s="17" t="n">
+        <v>4.20624151967435</v>
+      </c>
+      <c r="M77" s="18" t="n">
+        <v>4.76830087306916</v>
+      </c>
+      <c r="N77" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="O77" s="16" t="n">
+        <v>71</v>
+      </c>
+      <c r="P77" s="16" t="n">
+        <v>3.506</v>
+      </c>
+      <c r="Q77" s="16" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="R77" s="16" t="n">
+        <v>125.045</v>
+      </c>
+      <c r="S77" s="16" t="n">
+        <v>122.884</v>
+      </c>
+      <c r="T77" s="18" t="n">
+        <v>21.3687408399577</v>
+      </c>
+      <c r="U77" s="18" t="n">
+        <v>21.5505900273994</v>
+      </c>
+      <c r="V77" s="16" t="n">
+        <v>22.016</v>
+      </c>
+      <c r="W77" s="16" t="n">
+        <v>21.787</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y77" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z77" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA77" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB77" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC77" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="AD77" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="AE77" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="AF77" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="AG77" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="AH77" s="1" t="n">
+        <v>-27</v>
+      </c>
+      <c r="AI77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ77" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="AK77" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL77" s="1" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AM77" s="11" t="n">
+        <v>-6.53753026634383</v>
+      </c>
+      <c r="AN77" s="11" t="n">
+        <v>8.77659574468086</v>
+      </c>
+      <c r="AO77" s="11" t="n">
+        <v>35.4700854700855</v>
+      </c>
+      <c r="AP77" s="11" t="n">
+        <v>17.0483460559796</v>
+      </c>
+      <c r="AQ77" s="11" t="n">
+        <v>-1.5513897866839</v>
+      </c>
+      <c r="AR77" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="AS77" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="AT77" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="AU77" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AV77" s="1" t="n">
+        <v>3045</v>
+      </c>
+      <c r="AW77" s="1" t="n">
+        <v>18408</v>
+      </c>
+      <c r="AX77" s="1" t="n">
+        <v>20402</v>
+      </c>
+      <c r="AY77" s="1" t="n">
+        <v>16886</v>
+      </c>
+      <c r="AZ77" s="1" t="n">
+        <v>23580</v>
+      </c>
+      <c r="BA77" s="1" t="n">
+        <v>73514</v>
+      </c>
+      <c r="BB77" s="1" t="n">
+        <v>3352</v>
+      </c>
+      <c r="BC77" s="1" t="n">
+        <v>5653</v>
+      </c>
+      <c r="BD77" s="1" t="n">
+        <v>6469</v>
+      </c>
+      <c r="BE77" s="1" t="n">
+        <v>5732</v>
+      </c>
+      <c r="BF77" s="1" t="n">
+        <v>22540</v>
+      </c>
+      <c r="BG77" s="11" t="n">
+        <v>12.3562370982011</v>
+      </c>
+      <c r="BH77" s="11" t="n">
+        <v>20.7312600850814</v>
+      </c>
+      <c r="BI77" s="11" t="n">
+        <v>31.9756808857694</v>
+      </c>
+      <c r="BJ77" s="11" t="n">
+        <v>17.9085824975787</v>
+      </c>
+      <c r="BK77" s="11" t="n">
+        <v>23.1403602346859</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="16" t="n">
+        <v>104</v>
+      </c>
+      <c r="C78" s="16" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D78" s="16" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E78" s="16" t="n">
+        <v>7132</v>
+      </c>
+      <c r="F78" s="16" t="n">
+        <v>255061</v>
+      </c>
+      <c r="G78" s="16" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="H78" s="16" t="n">
+        <v>44</v>
+      </c>
+      <c r="I78" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="J78" s="16" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="K78" s="16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L78" s="17" t="n">
+        <v>3.53634577603144</v>
+      </c>
+      <c r="M78" s="18" t="n">
+        <v>5.33159947984396</v>
+      </c>
+      <c r="N78" s="16" t="n">
+        <v>54</v>
+      </c>
+      <c r="O78" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="P78" s="16" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="Q78" s="16" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="R78" s="16" t="n">
+        <v>128.571</v>
+      </c>
+      <c r="S78" s="16" t="n">
+        <v>126.49</v>
+      </c>
+      <c r="T78" s="18" t="n">
+        <v>20.3476453904692</v>
+      </c>
+      <c r="U78" s="18" t="n">
+        <v>20.8210751537844</v>
+      </c>
+      <c r="V78" s="16" t="n">
+        <v>21.738</v>
+      </c>
+      <c r="W78" s="16" t="n">
+        <v>21.798</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA78" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB78" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC78" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="AD78" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="AE78" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="AF78" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="AG78" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AH78" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="AI78" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ78" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="AK78" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL78" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AM78" s="11" t="n">
+        <v>-7.92540792540792</v>
+      </c>
+      <c r="AN78" s="11" t="n">
+        <v>7.05289672544081</v>
+      </c>
+      <c r="AO78" s="11" t="n">
+        <v>35.5102040816327</v>
+      </c>
+      <c r="AP78" s="11" t="n">
+        <v>15.5555555555555</v>
+      </c>
+      <c r="AQ78" s="11" t="n">
+        <v>-0.56639395846444</v>
+      </c>
+      <c r="AR78" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="AS78" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="AT78" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="AU78" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="AV78" s="1" t="n">
+        <v>3256</v>
+      </c>
+      <c r="AW78" s="1" t="n">
+        <v>19880</v>
+      </c>
+      <c r="AX78" s="1" t="n">
+        <v>22406</v>
+      </c>
+      <c r="AY78" s="1" t="n">
+        <v>18646</v>
+      </c>
+      <c r="AZ78" s="1" t="n">
+        <v>26290</v>
+      </c>
+      <c r="BA78" s="1" t="n">
+        <v>82743</v>
+      </c>
+      <c r="BB78" s="1" t="n">
+        <v>3331</v>
+      </c>
+      <c r="BC78" s="1" t="n">
+        <v>5591</v>
+      </c>
+      <c r="BD78" s="1" t="n">
+        <v>6478</v>
+      </c>
+      <c r="BE78" s="1" t="n">
+        <v>5643</v>
+      </c>
+      <c r="BF78" s="1" t="n">
+        <v>22455</v>
+      </c>
+      <c r="BG78" s="11" t="n">
+        <v>11.8120567375887</v>
+      </c>
+      <c r="BH78" s="11" t="n">
+        <v>19.7282992237121</v>
+      </c>
+      <c r="BI78" s="11" t="n">
+        <v>30.9138630398473</v>
+      </c>
+      <c r="BJ78" s="11" t="n">
+        <v>17.0087711366308</v>
+      </c>
+      <c r="BK78" s="11" t="n">
+        <v>22.2650788771777</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="16" t="n">
+        <v>106</v>
+      </c>
+      <c r="C79" s="16" t="n">
+        <v>3307</v>
+      </c>
+      <c r="D79" s="16" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E79" s="16" t="n">
+        <v>7412</v>
+      </c>
+      <c r="F79" s="16" t="n">
+        <v>262473</v>
+      </c>
+      <c r="G79" s="16" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H79" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="I79" s="16" t="n">
+        <v>58</v>
+      </c>
+      <c r="J79" s="16" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="K79" s="16" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="L79" s="17" t="n">
+        <v>2.64650283553876</v>
+      </c>
+      <c r="M79" s="18" t="n">
+        <v>5.40201005025125</v>
+      </c>
+      <c r="N79" s="16" t="n">
+        <v>42</v>
+      </c>
+      <c r="O79" s="16" t="n">
+        <v>86</v>
+      </c>
+      <c r="P79" s="16" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="Q79" s="16" t="n">
+        <v>3.741</v>
+      </c>
+      <c r="R79" s="16" t="n">
+        <v>132.243</v>
+      </c>
+      <c r="S79" s="16" t="n">
+        <v>130.231</v>
+      </c>
+      <c r="T79" s="18" t="n">
+        <v>19.4207897992541</v>
+      </c>
+      <c r="U79" s="18" t="n">
+        <v>20.1903021577422</v>
+      </c>
+      <c r="V79" s="16" t="n">
+        <v>21.506</v>
+      </c>
+      <c r="W79" s="16" t="n">
+        <v>21.877</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y79" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z79" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB79" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC79" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="AD79" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="AE79" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="AF79" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="AG79" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="AH79" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="AI79" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ79" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK79" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="AL79" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AM79" s="11" t="n">
+        <v>-8.08988764044943</v>
+      </c>
+      <c r="AN79" s="11" t="n">
+        <v>5.76923076923077</v>
+      </c>
+      <c r="AO79" s="11" t="n">
+        <v>34.6456692913386</v>
+      </c>
+      <c r="AP79" s="11" t="n">
+        <v>14.9038461538461</v>
+      </c>
+      <c r="AQ79" s="11" t="n">
+        <v>-0.546116504854366</v>
+      </c>
+      <c r="AR79" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="AS79" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="AT79" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="AU79" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AV79" s="1" t="n">
+        <v>3412</v>
+      </c>
+      <c r="AW79" s="1" t="n">
+        <v>21269</v>
+      </c>
+      <c r="AX79" s="1" t="n">
+        <v>23930</v>
+      </c>
+      <c r="AY79" s="1" t="n">
+        <v>19930</v>
+      </c>
+      <c r="AZ79" s="1" t="n">
+        <v>28250</v>
+      </c>
+      <c r="BA79" s="1" t="n">
+        <v>89670</v>
+      </c>
+      <c r="BB79" s="1" t="n">
+        <v>3353</v>
+      </c>
+      <c r="BC79" s="1" t="n">
+        <v>5570</v>
+      </c>
+      <c r="BD79" s="1" t="n">
+        <v>6521</v>
+      </c>
+      <c r="BE79" s="1" t="n">
+        <v>5595</v>
+      </c>
+      <c r="BF79" s="1" t="n">
+        <v>22303</v>
+      </c>
+      <c r="BG79" s="11" t="n">
+        <v>11.4464206465708</v>
+      </c>
+      <c r="BH79" s="11" t="n">
+        <v>18.9507348938487</v>
+      </c>
+      <c r="BI79" s="11" t="n">
+        <v>30.0479218505207</v>
+      </c>
+      <c r="BJ79" s="11" t="n">
+        <v>16.3181380698224</v>
+      </c>
+      <c r="BK79" s="11" t="n">
+        <v>21.3595487324861</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="C80" s="16" t="n">
+        <v>3399</v>
+      </c>
+      <c r="D80" s="16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E80" s="16" t="n">
+        <v>6980</v>
+      </c>
+      <c r="F80" s="16" t="n">
+        <v>269453</v>
+      </c>
+      <c r="G80" s="16" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="H80" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="I80" s="16" t="n">
+        <v>37</v>
+      </c>
+      <c r="J80" s="16" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="K80" s="16" t="n">
+        <v>1.715</v>
+      </c>
+      <c r="L80" s="17" t="n">
+        <v>1.50602409638554</v>
+      </c>
+      <c r="M80" s="18" t="n">
+        <v>3.81355932203389</v>
+      </c>
+      <c r="N80" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="O80" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="P80" s="16" t="n">
+        <v>3.448</v>
+      </c>
+      <c r="Q80" s="16" t="n">
+        <v>3.532</v>
+      </c>
+      <c r="R80" s="16" t="n">
+        <v>135.691</v>
+      </c>
+      <c r="S80" s="16" t="n">
+        <v>133.763</v>
+      </c>
+      <c r="T80" s="18" t="n">
+        <v>18.2276010490455</v>
+      </c>
+      <c r="U80" s="18" t="n">
+        <v>19.0401181831126</v>
+      </c>
+      <c r="V80" s="16" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="W80" s="16" t="n">
+        <v>21.395</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y80" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z80" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA80" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB80" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC80" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="AD80" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="AE80" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="AF80" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="AG80" s="1" t="n">
+        <v>1682</v>
+      </c>
+      <c r="AH80" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AI80" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ80" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK80" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL80" s="1" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AM80" s="11" t="n">
+        <v>-7.62527233115469</v>
+      </c>
+      <c r="AN80" s="11" t="n">
+        <v>5.77367205542725</v>
+      </c>
+      <c r="AO80" s="11" t="n">
+        <v>32.9588014981273</v>
+      </c>
+      <c r="AP80" s="11" t="n">
+        <v>10.5504587155963</v>
+      </c>
+      <c r="AQ80" s="11" t="n">
+        <v>-2.03843913803144</v>
+      </c>
+      <c r="AR80" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AS80" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="AT80" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="AU80" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AV80" s="1" t="n">
+        <v>3242</v>
+      </c>
+      <c r="AW80" s="1" t="n">
+        <v>22442</v>
+      </c>
+      <c r="AX80" s="1" t="n">
+        <v>25249</v>
+      </c>
+      <c r="AY80" s="1" t="n">
+        <v>20939</v>
+      </c>
+      <c r="AZ80" s="1" t="n">
+        <v>29786</v>
+      </c>
+      <c r="BA80" s="1" t="n">
+        <v>94923</v>
+      </c>
+      <c r="BB80" s="1" t="n">
+        <v>3250</v>
+      </c>
+      <c r="BC80" s="1" t="n">
+        <v>5436</v>
+      </c>
+      <c r="BD80" s="1" t="n">
+        <v>6406</v>
+      </c>
+      <c r="BE80" s="1" t="n">
+        <v>5403</v>
+      </c>
+      <c r="BF80" s="1" t="n">
+        <v>21777</v>
+      </c>
+      <c r="BG80" s="11" t="n">
+        <v>10.6827071623443</v>
+      </c>
+      <c r="BH80" s="11" t="n">
+        <v>17.811854910056</v>
+      </c>
+      <c r="BI80" s="11" t="n">
+        <v>28.4483524291678</v>
+      </c>
+      <c r="BJ80" s="11" t="n">
+        <v>15.2222910914521</v>
+      </c>
+      <c r="BK80" s="11" t="n">
+        <v>20.1294079585895</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="16" t="n">
+        <v>109</v>
+      </c>
+      <c r="C81" s="16" t="n">
+        <v>3508</v>
+      </c>
+      <c r="D81" s="16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E81" s="16" t="n">
+        <v>7709</v>
+      </c>
+      <c r="F81" s="16" t="n">
+        <v>277162</v>
+      </c>
+      <c r="G81" s="16" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="H81" s="16" t="n">
+        <v>52</v>
+      </c>
+      <c r="I81" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="J81" s="16" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="K81" s="16" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L81" s="17" t="n">
+        <v>1.4018691588785</v>
+      </c>
+      <c r="M81" s="18" t="n">
+        <v>3.80785002929116</v>
+      </c>
+      <c r="N81" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="O81" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="P81" s="16" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="Q81" s="16" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="R81" s="16" t="n">
+        <v>139.549</v>
+      </c>
+      <c r="S81" s="16" t="n">
+        <v>137.613</v>
+      </c>
+      <c r="T81" s="18" t="n">
+        <v>17.7688321771567</v>
+      </c>
+      <c r="U81" s="18" t="n">
+        <v>18.5276739418787</v>
+      </c>
+      <c r="V81" s="16" t="n">
+        <v>21.055</v>
+      </c>
+      <c r="W81" s="16" t="n">
+        <v>21.511</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y81" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z81" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA81" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB81" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC81" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="AD81" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="AE81" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="AF81" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="AG81" s="1" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AH81" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="AI81" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ81" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="AK81" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL81" s="1" t="n">
+        <v>-42</v>
+      </c>
+      <c r="AM81" s="11" t="n">
+        <v>-7.20338983050848</v>
+      </c>
+      <c r="AN81" s="11" t="n">
+        <v>3.9911308203991</v>
+      </c>
+      <c r="AO81" s="11" t="n">
+        <v>35.6363636363636</v>
+      </c>
+      <c r="AP81" s="11" t="n">
+        <v>11.0864745011086</v>
+      </c>
+      <c r="AQ81" s="11" t="n">
+        <v>-2.3728813559322</v>
+      </c>
+      <c r="AR81" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="AS81" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="AT81" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="AU81" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="AV81" s="1" t="n">
+        <v>3588</v>
+      </c>
+      <c r="AW81" s="1" t="n">
+        <v>23563</v>
+      </c>
+      <c r="AX81" s="1" t="n">
+        <v>26436</v>
+      </c>
+      <c r="AY81" s="1" t="n">
+        <v>21837</v>
+      </c>
+      <c r="AZ81" s="1" t="n">
+        <v>31064</v>
+      </c>
+      <c r="BA81" s="1" t="n">
+        <v>99247</v>
+      </c>
+      <c r="BB81" s="1" t="n">
+        <v>3302</v>
+      </c>
+      <c r="BC81" s="1" t="n">
+        <v>5511</v>
+      </c>
+      <c r="BD81" s="1" t="n">
+        <v>6443</v>
+      </c>
+      <c r="BE81" s="1" t="n">
+        <v>5420</v>
+      </c>
+      <c r="BF81" s="1" t="n">
+        <v>21844</v>
+      </c>
+      <c r="BG81" s="11" t="n">
+        <v>10.4891994917408</v>
+      </c>
+      <c r="BH81" s="11" t="n">
+        <v>17.4841370558376</v>
+      </c>
+      <c r="BI81" s="11" t="n">
+        <v>27.67373936947</v>
+      </c>
+      <c r="BJ81" s="11" t="n">
+        <v>14.8059114377032</v>
+      </c>
+      <c r="BK81" s="11" t="n">
+        <v>19.5547279937694</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="16" t="n">
+        <v>122</v>
+      </c>
+      <c r="C82" s="16" t="n">
+        <v>3630</v>
+      </c>
+      <c r="D82" s="16" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E82" s="16" t="n">
+        <v>7696</v>
+      </c>
+      <c r="F82" s="16" t="n">
+        <v>284857</v>
+      </c>
+      <c r="G82" s="16" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="H82" s="16" t="n">
+        <v>58</v>
+      </c>
+      <c r="I82" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="J82" s="16" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="K82" s="16" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="L82" s="17" t="n">
+        <v>1.87287173666288</v>
+      </c>
+      <c r="M82" s="18" t="n">
+        <v>4.43938531587933</v>
+      </c>
+      <c r="N82" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="O82" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="P82" s="16" t="n">
+        <v>3.828</v>
+      </c>
+      <c r="Q82" s="16" t="n">
+        <v>3.868</v>
+      </c>
+      <c r="R82" s="16" t="n">
+        <v>143.376</v>
+      </c>
+      <c r="S82" s="16" t="n">
+        <v>141.481</v>
+      </c>
+      <c r="T82" s="18" t="n">
+        <v>17.3318493907379</v>
+      </c>
+      <c r="U82" s="18" t="n">
+        <v>18.2042241753835</v>
+      </c>
+      <c r="V82" s="16" t="n">
+        <v>21.179</v>
+      </c>
+      <c r="W82" s="16" t="n">
+        <v>21.789</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y82" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z82" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA82" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB82" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC82" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="AD82" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="AE82" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="AF82" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="AG82" s="1" t="n">
+        <v>1778</v>
+      </c>
+      <c r="AH82" s="1" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AI82" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ82" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK82" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL82" s="1" t="n">
+        <v>-43</v>
+      </c>
+      <c r="AM82" s="11" t="n">
+        <v>-3.31262939958592</v>
+      </c>
+      <c r="AN82" s="11" t="n">
+        <v>4.76190476190477</v>
+      </c>
+      <c r="AO82" s="11" t="n">
+        <v>35.5633802816901</v>
+      </c>
+      <c r="AP82" s="11" t="n">
+        <v>10.0213219616205</v>
+      </c>
+      <c r="AQ82" s="11" t="n">
+        <v>-2.36133992311917</v>
+      </c>
+      <c r="AR82" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="AS82" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="AT82" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="AU82" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="AV82" s="1" t="n">
+        <v>3550</v>
+      </c>
+      <c r="AW82" s="1" t="n">
+        <v>24767</v>
+      </c>
+      <c r="AX82" s="1" t="n">
+        <v>27626</v>
+      </c>
+      <c r="AY82" s="1" t="n">
+        <v>22712</v>
+      </c>
+      <c r="AZ82" s="1" t="n">
+        <v>32269</v>
+      </c>
+      <c r="BA82" s="1" t="n">
+        <v>103328</v>
+      </c>
+      <c r="BB82" s="1" t="n">
+        <v>3244</v>
+      </c>
+      <c r="BC82" s="1" t="n">
+        <v>5650</v>
+      </c>
+      <c r="BD82" s="1" t="n">
+        <v>6548</v>
+      </c>
+      <c r="BE82" s="1" t="n">
+        <v>5461</v>
+      </c>
+      <c r="BF82" s="1" t="n">
+        <v>22020</v>
+      </c>
+      <c r="BG82" s="11" t="n">
+        <v>9.93811653697689</v>
+      </c>
+      <c r="BH82" s="11" t="n">
+        <v>17.4017494148084</v>
+      </c>
+      <c r="BI82" s="11" t="n">
+        <v>27.3026727265146</v>
+      </c>
+      <c r="BJ82" s="11" t="n">
+        <v>14.4792660939654</v>
+      </c>
+      <c r="BK82" s="11" t="n">
+        <v>19.1345151199166</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="16" t="n">
+        <v>122</v>
+      </c>
+      <c r="C83" s="16" t="n">
+        <v>3752</v>
+      </c>
+      <c r="D83" s="16" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E83" s="16" t="n">
+        <v>7897</v>
+      </c>
+      <c r="F83" s="16" t="n">
+        <v>292754</v>
+      </c>
+      <c r="G83" s="16" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="H83" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="I83" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="J83" s="16" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K83" s="16" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="L83" s="17" t="n">
+        <v>2.13815789473684</v>
+      </c>
+      <c r="M83" s="18" t="n">
+        <v>4.30701270016565</v>
+      </c>
+      <c r="N83" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="O83" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="P83" s="16" t="n">
+        <v>4.001</v>
+      </c>
+      <c r="Q83" s="16" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="R83" s="16" t="n">
+        <v>147.377</v>
+      </c>
+      <c r="S83" s="16" t="n">
+        <v>145.377</v>
+      </c>
+      <c r="T83" s="18" t="n">
+        <v>16.997443754664</v>
+      </c>
+      <c r="U83" s="18" t="n">
+        <v>17.8248395253842</v>
+      </c>
+      <c r="V83" s="16" t="n">
+        <v>21.411</v>
+      </c>
+      <c r="W83" s="16" t="n">
+        <v>21.993</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y83" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z83" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA83" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC83" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="AD83" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="AE83" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="AF83" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="AG83" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="AH83" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AI83" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ83" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="AK83" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL83" s="1" t="n">
+        <v>-48</v>
+      </c>
+      <c r="AM83" s="11" t="n">
+        <v>-1.81086519114688</v>
+      </c>
+      <c r="AN83" s="11" t="n">
+        <v>4.40251572327044</v>
+      </c>
+      <c r="AO83" s="11" t="n">
+        <v>35.7142857142857</v>
+      </c>
+      <c r="AP83" s="11" t="n">
+        <v>9.46502057613168</v>
+      </c>
+      <c r="AQ83" s="11" t="n">
+        <v>-2.55183413078149</v>
+      </c>
+      <c r="AR83" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AS83" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="AT83" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="AU83" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="AV83" s="1" t="n">
+        <v>3744</v>
+      </c>
+      <c r="AW83" s="1" t="n">
+        <v>25880</v>
+      </c>
+      <c r="AX83" s="1" t="n">
+        <v>28682</v>
+      </c>
+      <c r="AY83" s="1" t="n">
+        <v>23567</v>
+      </c>
+      <c r="AZ83" s="1" t="n">
+        <v>33362</v>
+      </c>
+      <c r="BA83" s="1" t="n">
+        <v>106742</v>
+      </c>
+      <c r="BB83" s="1" t="n">
+        <v>3354</v>
+      </c>
+      <c r="BC83" s="1" t="n">
+        <v>5679</v>
+      </c>
+      <c r="BD83" s="1" t="n">
+        <v>6621</v>
+      </c>
+      <c r="BE83" s="1" t="n">
+        <v>5491</v>
+      </c>
+      <c r="BF83" s="1" t="n">
+        <v>22212</v>
+      </c>
+      <c r="BG83" s="11" t="n">
+        <v>9.95636298869</v>
+      </c>
+      <c r="BH83" s="11" t="n">
+        <v>16.9679404822373</v>
+      </c>
+      <c r="BI83" s="11" t="n">
+        <v>26.7623282134196</v>
+      </c>
+      <c r="BJ83" s="11" t="n">
+        <v>14.1440420380197</v>
+      </c>
+      <c r="BK83" s="11" t="n">
+        <v>18.723447299211</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="16" t="n">
+        <v>117</v>
+      </c>
+      <c r="C84" s="16" t="n">
+        <v>3868</v>
+      </c>
+      <c r="D84" s="16" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E84" s="16" t="n">
+        <v>8557</v>
+      </c>
+      <c r="F84" s="16" t="n">
+        <v>301311</v>
+      </c>
+      <c r="G84" s="16" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="H84" s="16" t="n">
+        <v>57</v>
+      </c>
+      <c r="I84" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="J84" s="16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K84" s="16" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="L84" s="17" t="n">
+        <v>2.94906166219839</v>
+      </c>
+      <c r="M84" s="18" t="n">
+        <v>5.18358531317495</v>
+      </c>
+      <c r="N84" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="O84" s="16" t="n">
+        <v>96</v>
+      </c>
+      <c r="P84" s="16" t="n">
+        <v>4.167</v>
+      </c>
+      <c r="Q84" s="16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="R84" s="16" t="n">
+        <v>151.544</v>
+      </c>
+      <c r="S84" s="16" t="n">
+        <v>149.767</v>
+      </c>
+      <c r="T84" s="18" t="n">
+        <v>17.0061304220263</v>
+      </c>
+      <c r="U84" s="18" t="n">
+        <v>17.9639256458727</v>
+      </c>
+      <c r="V84" s="16" t="n">
+        <v>22.026</v>
+      </c>
+      <c r="W84" s="16" t="n">
+        <v>22.807</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y84" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z84" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA84" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB84" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC84" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="AD84" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="AE84" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="AF84" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="AG84" s="1" t="n">
+        <v>1882</v>
+      </c>
+      <c r="AH84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI84" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ84" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="AK84" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL84" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="AM84" s="11" t="n">
+        <v>1.18577075098814</v>
+      </c>
+      <c r="AN84" s="11" t="n">
+        <v>6.98151950718686</v>
+      </c>
+      <c r="AO84" s="11" t="n">
+        <v>35.4304635761589</v>
+      </c>
+      <c r="AP84" s="11" t="n">
+        <v>10.1010101010101</v>
+      </c>
+      <c r="AQ84" s="11" t="n">
+        <v>-2.33523611831863</v>
+      </c>
+      <c r="AR84" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="AS84" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="AT84" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="AU84" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="AV84" s="1" t="n">
+        <v>4058</v>
+      </c>
+      <c r="AW84" s="1" t="n">
+        <v>26985</v>
+      </c>
+      <c r="AX84" s="1" t="n">
+        <v>29775</v>
+      </c>
+      <c r="AY84" s="1" t="n">
+        <v>24377</v>
+      </c>
+      <c r="AZ84" s="1" t="n">
+        <v>34497</v>
+      </c>
+      <c r="BA84" s="1" t="n">
+        <v>110194</v>
+      </c>
+      <c r="BB84" s="1" t="n">
+        <v>3452</v>
+      </c>
+      <c r="BC84" s="1" t="n">
+        <v>5799</v>
+      </c>
+      <c r="BD84" s="1" t="n">
+        <v>6755</v>
+      </c>
+      <c r="BE84" s="1" t="n">
+        <v>5706</v>
+      </c>
+      <c r="BF84" s="1" t="n">
+        <v>23072</v>
+      </c>
+      <c r="BG84" s="11" t="n">
+        <v>9.91583603826156</v>
+      </c>
+      <c r="BH84" s="11" t="n">
+        <v>16.8321142459074</v>
+      </c>
+      <c r="BI84" s="11" t="n">
+        <v>26.5026679221594</v>
+      </c>
+      <c r="BJ84" s="11" t="n">
+        <v>14.3025441784685</v>
+      </c>
+      <c r="BK84" s="11" t="n">
+        <v>18.9378642370516</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="16" t="n">
+        <v>105</v>
+      </c>
+      <c r="C85" s="16" t="n">
+        <v>3974</v>
+      </c>
+      <c r="D85" s="16" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E85" s="16" t="n">
+        <v>8357</v>
+      </c>
+      <c r="F85" s="16" t="n">
+        <v>309668</v>
+      </c>
+      <c r="G85" s="16" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="H85" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="I85" s="16" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" s="16" t="n">
+        <v>1.974</v>
+      </c>
+      <c r="K85" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" s="17" t="n">
+        <v>2.17391304347827</v>
+      </c>
+      <c r="M85" s="18" t="n">
+        <v>4.60251046025104</v>
+      </c>
+      <c r="N85" s="16" t="n">
+        <v>42</v>
+      </c>
+      <c r="O85" s="16" t="n">
+        <v>88</v>
+      </c>
+      <c r="P85" s="16" t="n">
+        <v>4.001</v>
+      </c>
+      <c r="Q85" s="16" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="R85" s="16" t="n">
+        <v>155.545</v>
+      </c>
+      <c r="S85" s="16" t="n">
+        <v>154.123</v>
+      </c>
+      <c r="T85" s="18" t="n">
+        <v>16.7448493263782</v>
+      </c>
+      <c r="U85" s="18" t="n">
+        <v>18.0512576978461</v>
+      </c>
+      <c r="V85" s="16" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="W85" s="16" t="n">
+        <v>23.567</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y85" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z85" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA85" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB85" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC85" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="AD85" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="AE85" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="AF85" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="AG85" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="AH85" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI85" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ85" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="AK85" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL85" s="1" t="n">
+        <v>-45</v>
+      </c>
+      <c r="AM85" s="11" t="n">
+        <v>1.15830115830116</v>
+      </c>
+      <c r="AN85" s="11" t="n">
+        <v>4.10958904109588</v>
+      </c>
+      <c r="AO85" s="11" t="n">
+        <v>30.4075235109718</v>
+      </c>
+      <c r="AP85" s="11" t="n">
+        <v>10.1190476190476</v>
+      </c>
+      <c r="AQ85" s="11" t="n">
+        <v>-2.25903614457831</v>
+      </c>
+      <c r="AR85" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="AS85" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="AT85" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="AU85" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="AV85" s="1" t="n">
+        <v>3987</v>
+      </c>
+      <c r="AW85" s="1" t="n">
+        <v>28033</v>
+      </c>
+      <c r="AX85" s="1" t="n">
+        <v>30730</v>
+      </c>
+      <c r="AY85" s="1" t="n">
+        <v>25089</v>
+      </c>
+      <c r="AZ85" s="1" t="n">
+        <v>35493</v>
+      </c>
+      <c r="BA85" s="1" t="n">
+        <v>113451</v>
+      </c>
+      <c r="BB85" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="BC85" s="1" t="n">
+        <v>5841</v>
+      </c>
+      <c r="BD85" s="1" t="n">
+        <v>6913</v>
+      </c>
+      <c r="BE85" s="1" t="n">
+        <v>5946</v>
+      </c>
+      <c r="BF85" s="1" t="n">
+        <v>23618</v>
+      </c>
+      <c r="BG85" s="11" t="n">
+        <v>9.75317584131936</v>
+      </c>
+      <c r="BH85" s="11" t="n">
+        <v>16.4627959413754</v>
+      </c>
+      <c r="BI85" s="11" t="n">
+        <v>26.3683869245146</v>
+      </c>
+      <c r="BJ85" s="11" t="n">
+        <v>14.5283064969336</v>
+      </c>
+      <c r="BK85" s="11" t="n">
+        <v>18.8535255565933</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="16" t="n">
+        <v>133</v>
+      </c>
+      <c r="C86" s="16" t="n">
+        <v>4107</v>
+      </c>
+      <c r="D86" s="16" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E86" s="16" t="n">
+        <v>7596</v>
+      </c>
+      <c r="F86" s="16" t="n">
+        <v>317265</v>
+      </c>
+      <c r="G86" s="16" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="H86" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="I86" s="16" t="n">
+        <v>68</v>
+      </c>
+      <c r="J86" s="16" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="K86" s="16" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="L86" s="17" t="n">
+        <v>2.36062280261176</v>
+      </c>
+      <c r="M86" s="18" t="n">
+        <v>5.56122448979592</v>
+      </c>
+      <c r="N86" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="O86" s="16" t="n">
+        <v>109</v>
+      </c>
+      <c r="P86" s="16" t="n">
+        <v>3.801</v>
+      </c>
+      <c r="Q86" s="16" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="R86" s="16" t="n">
+        <v>159.346</v>
+      </c>
+      <c r="S86" s="16" t="n">
+        <v>157.919</v>
+      </c>
+      <c r="T86" s="18" t="n">
+        <v>16.508247543285</v>
+      </c>
+      <c r="U86" s="18" t="n">
+        <v>17.7270016400775</v>
+      </c>
+      <c r="V86" s="16" t="n">
+        <v>22.578</v>
+      </c>
+      <c r="W86" s="16" t="n">
+        <v>23.779</v>
+      </c>
+      <c r="X86" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y86" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB86" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC86" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="AD86" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="AE86" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="AF86" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="AG86" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="AH86" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI86" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ86" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK86" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="AL86" s="1" t="n">
+        <v>-32</v>
+      </c>
+      <c r="AM86" s="11" t="n">
+        <v>3.40909090909092</v>
+      </c>
+      <c r="AN86" s="11" t="n">
+        <v>5.11363636363635</v>
+      </c>
+      <c r="AO86" s="11" t="n">
+        <v>27.4096385542169</v>
+      </c>
+      <c r="AP86" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ86" s="11" t="n">
+        <v>-1.56632403328438</v>
+      </c>
+      <c r="AR86" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="AS86" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="AT86" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="AU86" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="AV86" s="1" t="n">
+        <v>3539</v>
+      </c>
+      <c r="AW86" s="1" t="n">
+        <v>28913</v>
+      </c>
+      <c r="AX86" s="1" t="n">
+        <v>31651</v>
+      </c>
+      <c r="AY86" s="1" t="n">
+        <v>25737</v>
+      </c>
+      <c r="AZ86" s="1" t="n">
+        <v>36441</v>
+      </c>
+      <c r="BA86" s="1" t="n">
+        <v>116307</v>
+      </c>
+      <c r="BB86" s="1" t="n">
+        <v>3503</v>
+      </c>
+      <c r="BC86" s="1" t="n">
+        <v>5848</v>
+      </c>
+      <c r="BD86" s="1" t="n">
+        <v>7042</v>
+      </c>
+      <c r="BE86" s="1" t="n">
+        <v>6022</v>
+      </c>
+      <c r="BF86" s="1" t="n">
+        <v>23879</v>
+      </c>
+      <c r="BG86" s="11" t="n">
+        <v>9.48602686308493</v>
+      </c>
+      <c r="BH86" s="11" t="n">
+        <v>16.0109514031485</v>
+      </c>
+      <c r="BI86" s="11" t="n">
+        <v>26.1833054471091</v>
+      </c>
+      <c r="BJ86" s="11" t="n">
+        <v>14.3339998095782</v>
+      </c>
+      <c r="BK86" s="11" t="n">
+        <v>18.5759405047142</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9147,10 +11130,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9168,21 +11151,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D2</f>
@@ -9203,7 +11186,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D3</f>
@@ -9224,7 +11207,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D4</f>
@@ -9245,7 +11228,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D5</f>
@@ -9266,7 +11249,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D6</f>
@@ -9287,7 +11270,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D7</f>
@@ -9308,7 +11291,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D8</f>
@@ -9329,7 +11312,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D9</f>
@@ -9350,7 +11333,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D10</f>
@@ -9371,7 +11354,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D11</f>
@@ -9392,7 +11375,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D12</f>
@@ -9413,7 +11396,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D13</f>
@@ -9434,7 +11417,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D14</f>
@@ -9455,7 +11438,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D15</f>
@@ -9476,7 +11459,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D16</f>
@@ -9497,7 +11480,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D17</f>
@@ -9518,7 +11501,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D18</f>
@@ -9539,7 +11522,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D19</f>
@@ -9560,7 +11543,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D20</f>
@@ -9581,7 +11564,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D21</f>
@@ -9602,7 +11585,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D22</f>
@@ -9623,7 +11606,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D23</f>
@@ -9644,7 +11627,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!D24</f>
@@ -9661,6 +11644,216 @@
       <c r="E24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!G76</f>
         <v>21.52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D25</f>
+        <v>-3.77</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G25</f>
+        <v>-3.78</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D77</f>
+        <v>4.51</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G77</f>
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D26</f>
+        <v>-3.98</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G26</f>
+        <v>-3.79</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D78</f>
+        <v>4.42</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G78</f>
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D27</f>
+        <v>-3.4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G27</f>
+        <v>-3.72</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D79</f>
+        <v>4.02</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G79</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D28</f>
+        <v>-2.42</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G28</f>
+        <v>-3.29</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D80</f>
+        <v>2.64</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G80</f>
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D29</f>
+        <v>-1.89</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G29</f>
+        <v>-3.15</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D81</f>
+        <v>2.62</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G81</f>
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D30</f>
+        <v>-2.06</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G30</f>
+        <v>-3.02</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D82</f>
+        <v>3.16</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G82</f>
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D31</f>
+        <v>-1.73</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G31</f>
+        <v>-2.81</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D83</f>
+        <v>3.21</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G83</f>
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D32</f>
+        <v>-2.77</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G32</f>
+        <v>-2.96</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D84</f>
+        <v>4.07</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G84</f>
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D33</f>
+        <v>-1.66</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G33</f>
+        <v>-3.13</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D85</f>
+        <v>3.37</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G85</f>
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D34</f>
+        <v>-1.27</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G34</f>
+        <v>-3.07</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D86</f>
+        <v>3.94</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G86</f>
+        <v>17.11</v>
       </c>
     </row>
   </sheetData>
@@ -9679,10 +11872,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="T77:U86 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9690,8 +11883,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -9700,21 +11893,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T54</f>
@@ -9735,7 +11928,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T55</f>
@@ -9756,7 +11949,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T56</f>
@@ -9777,7 +11970,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T57</f>
@@ -9798,7 +11991,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T58</f>
@@ -9819,7 +12012,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T59</f>
@@ -9840,7 +12033,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T60</f>
@@ -9861,7 +12054,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T61</f>
@@ -9882,7 +12075,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T62</f>
@@ -9903,7 +12096,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T63</f>
@@ -9924,7 +12117,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T64</f>
@@ -9945,7 +12138,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T65</f>
@@ -9966,7 +12159,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T66</f>
@@ -9987,7 +12180,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T67</f>
@@ -10008,7 +12201,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T68</f>
@@ -10029,7 +12222,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T69</f>
@@ -10050,7 +12243,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T70</f>
@@ -10071,7 +12264,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T71</f>
@@ -10092,7 +12285,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T72</f>
@@ -10113,7 +12306,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T73</f>
@@ -10134,7 +12327,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T74</f>
@@ -10155,7 +12348,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T75</f>
@@ -10176,7 +12369,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!T76</f>
@@ -10193,6 +12386,216 @@
       <c r="E24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!M76</f>
         <v>5.07296733842946</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T77</f>
+        <v>21.3687408399577</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U77</f>
+        <v>21.5505900273994</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L77</f>
+        <v>4.20624151967435</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M77</f>
+        <v>4.76830087306916</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T78</f>
+        <v>20.3476453904692</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U78</f>
+        <v>20.8210751537844</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L78</f>
+        <v>3.53634577603144</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M78</f>
+        <v>5.33159947984396</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T79</f>
+        <v>19.4207897992541</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U79</f>
+        <v>20.1903021577422</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L79</f>
+        <v>2.64650283553876</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M79</f>
+        <v>5.40201005025125</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T80</f>
+        <v>18.2276010490455</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U80</f>
+        <v>19.0401181831126</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L80</f>
+        <v>1.50602409638554</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M80</f>
+        <v>3.81355932203389</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T81</f>
+        <v>17.7688321771567</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U81</f>
+        <v>18.5276739418787</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L81</f>
+        <v>1.4018691588785</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M81</f>
+        <v>3.80785002929116</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T82</f>
+        <v>17.3318493907379</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U82</f>
+        <v>18.2042241753835</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L82</f>
+        <v>1.87287173666288</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M82</f>
+        <v>4.43938531587933</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T83</f>
+        <v>16.997443754664</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U83</f>
+        <v>17.8248395253842</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L83</f>
+        <v>2.13815789473684</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M83</f>
+        <v>4.30701270016565</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T84</f>
+        <v>17.0061304220263</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U84</f>
+        <v>17.9639256458727</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L84</f>
+        <v>2.94906166219839</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M84</f>
+        <v>5.18358531317495</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T85</f>
+        <v>16.7448493263782</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U85</f>
+        <v>18.0512576978461</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L85</f>
+        <v>2.17391304347827</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M85</f>
+        <v>4.60251046025104</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T86</f>
+        <v>16.508247543285</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U86</f>
+        <v>17.7270016400775</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L86</f>
+        <v>2.36062280261176</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M86</f>
+        <v>5.56122448979592</v>
       </c>
     </row>
   </sheetData>
@@ -10211,10 +12614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10222,34 +12625,34 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>143</v>
+      <c r="B1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,6 +13320,296 @@
       <c r="G24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!E76</f>
         <v>6254</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H77</f>
+        <v>49</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I77</f>
+        <v>47</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B77</f>
+        <v>96</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P77</f>
+        <v>3.506</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q77</f>
+        <v>3.423</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E77</f>
+        <v>6929</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H78</f>
+        <v>44</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I78</f>
+        <v>60</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B78</f>
+        <v>104</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P78</f>
+        <v>3.526</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q78</f>
+        <v>3.605</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E78</f>
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H79</f>
+        <v>48</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I79</f>
+        <v>58</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B79</f>
+        <v>106</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P79</f>
+        <v>3.671</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q79</f>
+        <v>3.741</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E79</f>
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H80</f>
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I80</f>
+        <v>37</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B80</f>
+        <v>93</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P80</f>
+        <v>3.448</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q80</f>
+        <v>3.532</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E80</f>
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H81</f>
+        <v>52</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I81</f>
+        <v>57</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B81</f>
+        <v>109</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P81</f>
+        <v>3.858</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q81</f>
+        <v>3.851</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E81</f>
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H82</f>
+        <v>58</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I82</f>
+        <v>63</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B82</f>
+        <v>122</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P82</f>
+        <v>3.828</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q82</f>
+        <v>3.868</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E82</f>
+        <v>7696</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H83</f>
+        <v>68</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I83</f>
+        <v>53</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B83</f>
+        <v>122</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P83</f>
+        <v>4.001</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q83</f>
+        <v>3.896</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E83</f>
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H84</f>
+        <v>57</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I84</f>
+        <v>60</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B84</f>
+        <v>117</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P84</f>
+        <v>4.167</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q84</f>
+        <v>4.39</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E84</f>
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H85</f>
+        <v>53</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I85</f>
+        <v>52</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B85</f>
+        <v>105</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P85</f>
+        <v>4.001</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q85</f>
+        <v>4.356</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E85</f>
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H86</f>
+        <v>65</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I86</f>
+        <v>68</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B86</f>
+        <v>133</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!P86</f>
+        <v>3.801</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Q86</f>
+        <v>3.796</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!E86</f>
+        <v>7596</v>
       </c>
     </row>
   </sheetData>
@@ -10935,17 +13628,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.28"/>
@@ -10954,26 +13647,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>143</v>
+      <c r="B1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11641,6 +14334,296 @@
       <c r="G24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!F76</f>
         <v>239540</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J77</f>
+        <v>1.536</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K77</f>
+        <v>1.56</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C77</f>
+        <v>3097</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R77</f>
+        <v>125.045</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S77</f>
+        <v>122.884</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F77</f>
+        <v>247929</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J78</f>
+        <v>1.581</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K78</f>
+        <v>1.62</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C78</f>
+        <v>3200</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R78</f>
+        <v>128.571</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S78</f>
+        <v>126.49</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F78</f>
+        <v>255061</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J79</f>
+        <v>1.629</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K79</f>
+        <v>1.678</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C79</f>
+        <v>3307</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R79</f>
+        <v>132.243</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S79</f>
+        <v>130.231</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F79</f>
+        <v>262473</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J80</f>
+        <v>1.685</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K80</f>
+        <v>1.715</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C80</f>
+        <v>3399</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R80</f>
+        <v>135.691</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S80</f>
+        <v>133.763</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F80</f>
+        <v>269453</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J81</f>
+        <v>1.736</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K81</f>
+        <v>1.772</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C81</f>
+        <v>3508</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R81</f>
+        <v>139.549</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S81</f>
+        <v>137.613</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F81</f>
+        <v>277162</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J82</f>
+        <v>1.795</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K82</f>
+        <v>1.835</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C82</f>
+        <v>3630</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R82</f>
+        <v>143.376</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S82</f>
+        <v>141.481</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F82</f>
+        <v>284857</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J83</f>
+        <v>1.863</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K83</f>
+        <v>1.889</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C83</f>
+        <v>3752</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R83</f>
+        <v>147.377</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S83</f>
+        <v>145.377</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F83</f>
+        <v>292754</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J84</f>
+        <v>1.92</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K84</f>
+        <v>1.948</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C84</f>
+        <v>3868</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R84</f>
+        <v>151.544</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S84</f>
+        <v>149.767</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F84</f>
+        <v>301311</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J85</f>
+        <v>1.974</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K85</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C85</f>
+        <v>3974</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R85</f>
+        <v>155.545</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S85</f>
+        <v>154.123</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F85</f>
+        <v>309668</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J86</f>
+        <v>2.038</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K86</f>
+        <v>2.069</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C86</f>
+        <v>4107</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!R86</f>
+        <v>159.346</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!S86</f>
+        <v>157.919</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!F86</f>
+        <v>317265</v>
       </c>
     </row>
   </sheetData>
@@ -11659,10 +14642,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="T77:U86 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11678,26 +14661,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>143</v>
+      <c r="B1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12365,6 +15348,296 @@
       <c r="G24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!G76</f>
         <v>21.52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L77</f>
+        <v>4.20624151967435</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M77</f>
+        <v>4.76830087306916</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D77</f>
+        <v>4.51</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T77</f>
+        <v>21.3687408399577</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U77</f>
+        <v>21.5505900273994</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G77</f>
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L78</f>
+        <v>3.53634577603144</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M78</f>
+        <v>5.33159947984396</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D78</f>
+        <v>4.42</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T78</f>
+        <v>20.3476453904692</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U78</f>
+        <v>20.8210751537844</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G78</f>
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L79</f>
+        <v>2.64650283553876</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M79</f>
+        <v>5.40201005025125</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D79</f>
+        <v>4.02</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T79</f>
+        <v>19.4207897992541</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U79</f>
+        <v>20.1903021577422</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G79</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L80</f>
+        <v>1.50602409638554</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M80</f>
+        <v>3.81355932203389</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D80</f>
+        <v>2.64</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T80</f>
+        <v>18.2276010490455</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U80</f>
+        <v>19.0401181831126</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G80</f>
+        <v>18.63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L81</f>
+        <v>1.4018691588785</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M81</f>
+        <v>3.80785002929116</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D81</f>
+        <v>2.62</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T81</f>
+        <v>17.7688321771567</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U81</f>
+        <v>18.5276739418787</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G81</f>
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L82</f>
+        <v>1.87287173666288</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M82</f>
+        <v>4.43938531587933</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D82</f>
+        <v>3.16</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T82</f>
+        <v>17.3318493907379</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U82</f>
+        <v>18.2042241753835</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G82</f>
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L83</f>
+        <v>2.13815789473684</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M83</f>
+        <v>4.30701270016565</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D83</f>
+        <v>3.21</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T83</f>
+        <v>16.997443754664</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U83</f>
+        <v>17.8248395253842</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G83</f>
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L84</f>
+        <v>2.94906166219839</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M84</f>
+        <v>5.18358531317495</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D84</f>
+        <v>4.07</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T84</f>
+        <v>17.0061304220263</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U84</f>
+        <v>17.9639256458727</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G84</f>
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L85</f>
+        <v>2.17391304347827</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M85</f>
+        <v>4.60251046025104</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D85</f>
+        <v>3.37</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T85</f>
+        <v>16.7448493263782</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U85</f>
+        <v>18.0512576978461</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G85</f>
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!L86</f>
+        <v>2.36062280261176</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!M86</f>
+        <v>5.56122448979592</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!D86</f>
+        <v>3.94</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!T86</f>
+        <v>16.508247543285</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!U86</f>
+        <v>17.7270016400775</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!G86</f>
+        <v>17.11</v>
       </c>
     </row>
   </sheetData>
@@ -12383,10 +15656,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12394,30 +15667,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>148</v>
+      <c r="B1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12993,6 +16266,256 @@
       <c r="F24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!AB76</f>
         <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X77</f>
+        <v>22</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y77</f>
+        <v>23</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z77</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA77</f>
+        <v>16</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB77</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X78</f>
+        <v>13</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y78</f>
+        <v>11</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z78</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA78</f>
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB78</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X79</f>
+        <v>20</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y79</f>
+        <v>22</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z79</f>
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA79</f>
+        <v>13</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB79</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X80</f>
+        <v>23</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y80</f>
+        <v>14</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z80</f>
+        <v>14</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA80</f>
+        <v>16</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB80</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X81</f>
+        <v>29</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y81</f>
+        <v>16</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z81</f>
+        <v>13</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA81</f>
+        <v>15</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB81</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X82</f>
+        <v>19</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y82</f>
+        <v>11</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z82</f>
+        <v>18</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA82</f>
+        <v>19</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB82</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X83</f>
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y83</f>
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z83</f>
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA83</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB83</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X84</f>
+        <v>13</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y84</f>
+        <v>15</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z84</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA84</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB84</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X85</f>
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y85</f>
+        <v>16</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z85</f>
+        <v>15</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA85</f>
+        <v>8</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB85</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!X86</f>
+        <v>22</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Y86</f>
+        <v>14</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!Z86</f>
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AA86</f>
+        <v>9</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AB86</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -13011,16 +16534,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.78"/>
@@ -13028,23 +16551,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>148</v>
+      <c r="B1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13620,6 +17143,256 @@
       <c r="F24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!AG76</f>
         <v>1478</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC77</f>
+        <v>386</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD77</f>
+        <v>409</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE77</f>
+        <v>317</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF77</f>
+        <v>460</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG77</f>
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC78</f>
+        <v>395</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD78</f>
+        <v>425</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE78</f>
+        <v>332</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF78</f>
+        <v>468</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG78</f>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC79</f>
+        <v>409</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD79</f>
+        <v>440</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE79</f>
+        <v>342</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF79</f>
+        <v>478</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG79</f>
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC80</f>
+        <v>424</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD80</f>
+        <v>458</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE80</f>
+        <v>355</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF80</f>
+        <v>482</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG80</f>
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC81</f>
+        <v>438</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD81</f>
+        <v>469</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE81</f>
+        <v>373</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF81</f>
+        <v>501</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG81</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC82</f>
+        <v>467</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD82</f>
+        <v>484</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE82</f>
+        <v>385</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF82</f>
+        <v>516</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG82</f>
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC83</f>
+        <v>488</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD83</f>
+        <v>498</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE83</f>
+        <v>399</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF83</f>
+        <v>532</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG83</f>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC84</f>
+        <v>512</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD84</f>
+        <v>521</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE84</f>
+        <v>409</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF84</f>
+        <v>545</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG84</f>
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC85</f>
+        <v>524</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD85</f>
+        <v>532</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE85</f>
+        <v>416</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF85</f>
+        <v>555</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG85</f>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AC86</f>
+        <v>546</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AD86</f>
+        <v>555</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AE86</f>
+        <v>423</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AF86</f>
+        <v>572</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AG86</f>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -13638,10 +17411,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13656,23 +17429,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>148</v>
+      <c r="B1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14248,6 +18021,256 @@
       <c r="F24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!AQ76</f>
         <v>-0.672043010752688</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM77</f>
+        <v>-6.53753026634383</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN77</f>
+        <v>8.77659574468086</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO77</f>
+        <v>35.4700854700855</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP77</f>
+        <v>17.0483460559796</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ77</f>
+        <v>-1.5513897866839</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM78</f>
+        <v>-7.92540792540792</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN78</f>
+        <v>7.05289672544081</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO78</f>
+        <v>35.5102040816327</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP78</f>
+        <v>15.5555555555555</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ78</f>
+        <v>-0.56639395846444</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM79</f>
+        <v>-8.08988764044943</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN79</f>
+        <v>5.76923076923077</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO79</f>
+        <v>34.6456692913386</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP79</f>
+        <v>14.9038461538461</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ79</f>
+        <v>-0.546116504854366</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM80</f>
+        <v>-7.62527233115469</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN80</f>
+        <v>5.77367205542725</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO80</f>
+        <v>32.9588014981273</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP80</f>
+        <v>10.5504587155963</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ80</f>
+        <v>-2.03843913803144</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM81</f>
+        <v>-7.20338983050848</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN81</f>
+        <v>3.9911308203991</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO81</f>
+        <v>35.6363636363636</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP81</f>
+        <v>11.0864745011086</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ81</f>
+        <v>-2.3728813559322</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM82</f>
+        <v>-3.31262939958592</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN82</f>
+        <v>4.76190476190477</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO82</f>
+        <v>35.5633802816901</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP82</f>
+        <v>10.0213219616205</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ82</f>
+        <v>-2.36133992311917</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM83</f>
+        <v>-1.81086519114688</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN83</f>
+        <v>4.40251572327044</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO83</f>
+        <v>35.7142857142857</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP83</f>
+        <v>9.46502057613168</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ83</f>
+        <v>-2.55183413078149</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM84</f>
+        <v>1.18577075098814</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN84</f>
+        <v>6.98151950718686</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO84</f>
+        <v>35.4304635761589</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP84</f>
+        <v>10.1010101010101</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ84</f>
+        <v>-2.33523611831863</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM85</f>
+        <v>1.15830115830116</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN85</f>
+        <v>4.10958904109588</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO85</f>
+        <v>30.4075235109718</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP85</f>
+        <v>10.1190476190476</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ85</f>
+        <v>-2.25903614457831</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AM86</f>
+        <v>3.40909090909092</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AN86</f>
+        <v>5.11363636363635</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AO86</f>
+        <v>27.4096385542169</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AP86</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!AQ86</f>
+        <v>-1.56632403328438</v>
       </c>
     </row>
   </sheetData>
@@ -14266,10 +18289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14285,15 +18308,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H54</f>
@@ -14306,7 +18329,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H55</f>
@@ -14319,7 +18342,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H56</f>
@@ -14332,7 +18355,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H57</f>
@@ -14345,7 +18368,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H58</f>
@@ -14358,7 +18381,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H59</f>
@@ -14371,7 +18394,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H60</f>
@@ -14384,7 +18407,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H61</f>
@@ -14397,7 +18420,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H62</f>
@@ -14410,7 +18433,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H63</f>
@@ -14423,7 +18446,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H64</f>
@@ -14436,7 +18459,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H65</f>
@@ -14449,7 +18472,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H66</f>
@@ -14462,7 +18485,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H67</f>
@@ -14475,7 +18498,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H68</f>
@@ -14488,7 +18511,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H69</f>
@@ -14501,7 +18524,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H70</f>
@@ -14514,7 +18537,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H71</f>
@@ -14527,7 +18550,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H72</f>
@@ -14540,7 +18563,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H73</f>
@@ -14553,7 +18576,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H74</f>
@@ -14566,7 +18589,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H75</f>
@@ -14579,7 +18602,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!H76</f>
@@ -14588,6 +18611,136 @@
       <c r="C24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!I76</f>
         <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H77</f>
+        <v>49</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I77</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H78</f>
+        <v>44</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I78</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H79</f>
+        <v>48</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I79</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H80</f>
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I80</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H81</f>
+        <v>52</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I81</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H82</f>
+        <v>58</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I82</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H83</f>
+        <v>68</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I83</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H84</f>
+        <v>57</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I84</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H85</f>
+        <v>53</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I85</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!H86</f>
+        <v>65</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!I86</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -14606,10 +18759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="T77:U86 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14626,18 +18779,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J54</f>
@@ -14654,7 +18807,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J55</f>
@@ -14671,7 +18824,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J56</f>
@@ -14688,7 +18841,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J57</f>
@@ -14705,7 +18858,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J58</f>
@@ -14722,7 +18875,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J59</f>
@@ -14739,7 +18892,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J60</f>
@@ -14756,7 +18909,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J61</f>
@@ -14773,7 +18926,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J62</f>
@@ -14790,7 +18943,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J63</f>
@@ -14807,7 +18960,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J64</f>
@@ -14824,7 +18977,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J65</f>
@@ -14841,7 +18994,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J66</f>
@@ -14858,7 +19011,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J67</f>
@@ -14875,7 +19028,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J68</f>
@@ -14892,7 +19045,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J69</f>
@@ -14909,7 +19062,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J70</f>
@@ -14926,7 +19079,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J71</f>
@@ -14943,7 +19096,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J72</f>
@@ -14960,7 +19113,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J73</f>
@@ -14977,7 +19130,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J74</f>
@@ -14994,7 +19147,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J75</f>
@@ -15011,7 +19164,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!J76</f>
@@ -15024,6 +19177,176 @@
       <c r="D24" s="0" t="n">
         <f aca="false">'Defunciones semanas'!C76</f>
         <v>2998</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J77</f>
+        <v>1.536</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K77</f>
+        <v>1.56</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C77</f>
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J78</f>
+        <v>1.581</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K78</f>
+        <v>1.62</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C78</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J79</f>
+        <v>1.629</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K79</f>
+        <v>1.678</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C79</f>
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J80</f>
+        <v>1.685</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K80</f>
+        <v>1.715</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C80</f>
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J81</f>
+        <v>1.736</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K81</f>
+        <v>1.772</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C81</f>
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J82</f>
+        <v>1.795</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K82</f>
+        <v>1.835</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C82</f>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J83</f>
+        <v>1.863</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K83</f>
+        <v>1.889</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C83</f>
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J84</f>
+        <v>1.92</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K84</f>
+        <v>1.948</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C84</f>
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J85</f>
+        <v>1.974</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K85</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C85</f>
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!J86</f>
+        <v>2.038</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!K86</f>
+        <v>2.069</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!C86</f>
+        <v>4107</v>
       </c>
     </row>
   </sheetData>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones semanas" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <sheet name="Defunciones acumuladas 2020" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Defunciones variación anual acumulado 2019-2020" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Defunciones variación anual acumulado sexo 2020" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Defunciones Cantabria Graph" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="261">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -784,6 +785,36 @@
   <si>
     <t xml:space="preserve">Cantabria Mujeres</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cantabria 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM9</t>
+  </si>
 </sst>
 </file>
 
@@ -1025,8 +1056,8 @@
   </sheetPr>
   <dimension ref="A1:BK110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E115" activeCellId="0" sqref="E115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E115" activeCellId="1" sqref="D2:D5 E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18954,7 +18985,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D5 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20199,8 +20230,8 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="1" sqref="D2:D5 C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21425,6 +21456,750 @@
       <c r="E58" s="0" t="n">
         <f aca="false">'Defunciones semanas'!M110</f>
         <v>-26.4900662251656</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B2</f>
+        <v>137</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B54</f>
+        <v>124</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B107</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B3</f>
+        <v>164</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B55</f>
+        <v>161</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B108</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B4</f>
+        <v>160</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B56</f>
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B109</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B5</f>
+        <v>162</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B57</f>
+        <v>138</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B110</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B6</f>
+        <v>151</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B58</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B7</f>
+        <v>135</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B59</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B8</f>
+        <v>133</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B60</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B9</f>
+        <v>127</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B61</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B10</f>
+        <v>112</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B62</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B11</f>
+        <v>102</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B63</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B12</f>
+        <v>133</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B64</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B13</f>
+        <v>96</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B65</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B14</f>
+        <v>116</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B66</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B15</f>
+        <v>104</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B67</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B16</f>
+        <v>121</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B68</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B17</f>
+        <v>122</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B69</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B18</f>
+        <v>110</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B70</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B19</f>
+        <v>110</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B71</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B20</f>
+        <v>117</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B72</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B21</f>
+        <v>107</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B73</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B22</f>
+        <v>119</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B74</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B23</f>
+        <v>118</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B75</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B24</f>
+        <v>104</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B76</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B25</f>
+        <v>104</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B77</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B26</f>
+        <v>102</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B78</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B27</f>
+        <v>114</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B79</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B28</f>
+        <v>133</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B80</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B29</f>
+        <v>107</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B81</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B30</f>
+        <v>100</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B82</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B31</f>
+        <v>116</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B83</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B32</f>
+        <v>82</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B84</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B33</f>
+        <v>127</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B85</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B34</f>
+        <v>107</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B86</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B35</f>
+        <v>94</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B87</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B36</f>
+        <v>100</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B88</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B37</f>
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B89</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B38</f>
+        <v>103</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B90</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B39</f>
+        <v>82</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B91</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B40</f>
+        <v>114</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B92</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B41</f>
+        <v>101</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B93</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B42</f>
+        <v>92</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B94</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B43</f>
+        <v>115</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B95</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B44</f>
+        <v>98</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B96</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B45</f>
+        <v>112</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B97</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B46</f>
+        <v>115</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B98</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B47</f>
+        <v>123</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B99</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B48</f>
+        <v>119</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B100</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B49</f>
+        <v>126</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B101</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B50</f>
+        <v>102</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B102</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B51</f>
+        <v>118</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B103</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B52</f>
+        <v>121</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B104</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B53</f>
+        <v>102</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B105</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <f aca="false">'Defunciones semanas'!B106</f>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -21445,8 +22220,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D5 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23155,8 +23930,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24866,7 +25641,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26576,7 +27351,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28054,7 +28829,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29531,7 +30306,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31008,8 +31783,8 @@
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31791,7 +32566,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="252">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -788,33 +788,6 @@
   <si>
     <t xml:space="preserve">Cantabria 2021</t>
   </si>
-  <si>
-    <t xml:space="preserve">SM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM9</t>
-  </si>
 </sst>
 </file>
 
@@ -1057,7 +1030,7 @@
   <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E115" activeCellId="1" sqref="D2:D5 E115"/>
+      <selection pane="topLeft" activeCell="E115" activeCellId="1" sqref="A2:A10 E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18985,7 +18958,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A10 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20231,7 +20204,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="1" sqref="D2:D5 C58"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="1" sqref="A2:A10 C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21476,15 +21449,17 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21503,7 +21478,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B2</f>
@@ -21520,7 +21495,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B3</f>
@@ -21537,7 +21512,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B4</f>
@@ -21554,7 +21529,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B5</f>
@@ -21571,7 +21546,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B6</f>
@@ -21584,7 +21559,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B7</f>
@@ -21597,7 +21572,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B8</f>
@@ -21610,7 +21585,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B9</f>
@@ -21623,7 +21598,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B10</f>
@@ -22221,7 +22196,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A10 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23931,7 +23906,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25641,7 +25616,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27351,7 +27326,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28829,7 +28804,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30306,7 +30281,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31784,7 +31759,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32566,7 +32541,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="D2:D5 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones semanas" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="Defunciones variación anual acumulado 2019-2020" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Defunciones variación anual acumulado sexo 2020" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Defunciones Cantabria Graph" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Defunciones Acumuladas Cantabria Graph" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="252">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -885,7 +886,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -947,6 +948,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:BK110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E115" activeCellId="1" sqref="A2:A10 E115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E115" activeCellId="0" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18958,7 +18963,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A10 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20204,7 +20209,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="1" sqref="A2:A10 C58"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21449,8 +21454,8 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22175,6 +22180,751 @@
       <c r="C54" s="0" t="n">
         <f aca="false">'Defunciones semanas'!B106</f>
         <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C2</f>
+        <v>137</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C54</f>
+        <v>124</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C107</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C3</f>
+        <v>301</v>
+      </c>
+      <c r="C3" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C55</f>
+        <v>285</v>
+      </c>
+      <c r="D3" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C108</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C4</f>
+        <v>461</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C56</f>
+        <v>430</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C109</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C5</f>
+        <v>623</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C57</f>
+        <v>568</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C110</f>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C6</f>
+        <v>774</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C58</f>
+        <v>694</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C7</f>
+        <v>909</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C59</f>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C8</f>
+        <v>1042</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C60</f>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C9</f>
+        <v>1169</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C61</f>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C10</f>
+        <v>1281</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C62</f>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C11</f>
+        <v>1383</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C63</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C12</f>
+        <v>1516</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C64</f>
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C13</f>
+        <v>1612</v>
+      </c>
+      <c r="C13" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C65</f>
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C14</f>
+        <v>1728</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C66</f>
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C15</f>
+        <v>1832</v>
+      </c>
+      <c r="C15" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C67</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C16</f>
+        <v>1953</v>
+      </c>
+      <c r="C16" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C68</f>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C17</f>
+        <v>2075</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C69</f>
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C18</f>
+        <v>2185</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C70</f>
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C19</f>
+        <v>2295</v>
+      </c>
+      <c r="C19" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C71</f>
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C20</f>
+        <v>2412</v>
+      </c>
+      <c r="C20" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C72</f>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C21</f>
+        <v>2519</v>
+      </c>
+      <c r="C21" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C73</f>
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C22</f>
+        <v>2638</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C74</f>
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C23</f>
+        <v>2756</v>
+      </c>
+      <c r="C23" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C75</f>
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C24</f>
+        <v>2860</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C76</f>
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C25</f>
+        <v>2964</v>
+      </c>
+      <c r="C25" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C77</f>
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C26</f>
+        <v>3066</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C78</f>
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C27</f>
+        <v>3180</v>
+      </c>
+      <c r="C27" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C79</f>
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C28</f>
+        <v>3313</v>
+      </c>
+      <c r="C28" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C80</f>
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C29</f>
+        <v>3420</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C81</f>
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C30</f>
+        <v>3520</v>
+      </c>
+      <c r="C30" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C82</f>
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C31</f>
+        <v>3636</v>
+      </c>
+      <c r="C31" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C83</f>
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C32</f>
+        <v>3718</v>
+      </c>
+      <c r="C32" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C84</f>
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C33</f>
+        <v>3845</v>
+      </c>
+      <c r="C33" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C85</f>
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C34</f>
+        <v>3952</v>
+      </c>
+      <c r="C34" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C86</f>
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C35</f>
+        <v>4046</v>
+      </c>
+      <c r="C35" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C87</f>
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C36</f>
+        <v>4146</v>
+      </c>
+      <c r="C36" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C88</f>
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C37</f>
+        <v>4257</v>
+      </c>
+      <c r="C37" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C89</f>
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C38</f>
+        <v>4360</v>
+      </c>
+      <c r="C38" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C90</f>
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C39</f>
+        <v>4442</v>
+      </c>
+      <c r="C39" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C91</f>
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C40</f>
+        <v>4556</v>
+      </c>
+      <c r="C40" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C92</f>
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C41</f>
+        <v>4657</v>
+      </c>
+      <c r="C41" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C93</f>
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C42</f>
+        <v>4749</v>
+      </c>
+      <c r="C42" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C94</f>
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C43</f>
+        <v>4864</v>
+      </c>
+      <c r="C43" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C95</f>
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C44</f>
+        <v>4962</v>
+      </c>
+      <c r="C44" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C96</f>
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C45</f>
+        <v>5074</v>
+      </c>
+      <c r="C45" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C97</f>
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C46</f>
+        <v>5189</v>
+      </c>
+      <c r="C46" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C98</f>
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C47</f>
+        <v>5312</v>
+      </c>
+      <c r="C47" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C99</f>
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C48</f>
+        <v>5431</v>
+      </c>
+      <c r="C48" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C100</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C49</f>
+        <v>5557</v>
+      </c>
+      <c r="C49" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C101</f>
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C50</f>
+        <v>5659</v>
+      </c>
+      <c r="C50" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C102</f>
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C51</f>
+        <v>5777</v>
+      </c>
+      <c r="C51" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C103</f>
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C52</f>
+        <v>5898</v>
+      </c>
+      <c r="C52" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C104</f>
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C53</f>
+        <v>6000</v>
+      </c>
+      <c r="C53" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C105</f>
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="16" t="n">
+        <f aca="false">'Defunciones semanas'!C106</f>
+        <v>6519</v>
       </c>
     </row>
   </sheetData>
@@ -22196,7 +22946,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A2:A10 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23906,7 +24656,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25616,7 +26366,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27326,7 +28076,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28804,7 +29554,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30281,7 +31031,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31759,7 +32509,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32541,7 +33291,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="A2:A10 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Defunciones semanas" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Defunciones edad acumulado" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Defunciones edad Cantabria" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Defunciones edad variacion" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Defunciones año acumuladas" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="221">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -858,9 +859,9 @@
   <dimension ref="A1:BM152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27519,7 +27520,7 @@
   <dimension ref="A1:AMJ152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34684,7 +34685,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -40939,12 +40940,17 @@
   <dimension ref="A1:AMJ152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="965" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="965" min="7" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="966" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -41291,1980 +41297,3294 @@
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>-27</v>
+      <c r="B54" s="11" t="n">
+        <v>-13.3333333333333</v>
+      </c>
+      <c r="C54" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E54" s="11" t="n">
+        <v>23.8095238095238</v>
+      </c>
+      <c r="F54" s="11" t="n">
+        <v>-32.5301204819277</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>-34</v>
+      <c r="B55" s="11" t="n">
+        <v>5.71428571428572</v>
+      </c>
+      <c r="C55" s="11" t="n">
+        <v>60.8695652173913</v>
+      </c>
+      <c r="D55" s="11" t="n">
+        <v>27.2727272727273</v>
+      </c>
+      <c r="E55" s="11" t="n">
+        <v>-6.12244897959183</v>
+      </c>
+      <c r="F55" s="11" t="n">
+        <v>-19.7674418604651</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>-6</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>-46</v>
+      <c r="B56" s="11" t="n">
+        <v>-10.5263157894737</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>31.1111111111111</v>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>45.7142857142857</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <v>-9.72222222222222</v>
+      </c>
+      <c r="F56" s="11" t="n">
+        <v>-18.2539682539683</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>-23</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>-60</v>
+      <c r="B57" s="11" t="n">
+        <v>-28.3950617283951</v>
+      </c>
+      <c r="C57" s="11" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="E57" s="11" t="n">
+        <v>-4.65116279069767</v>
+      </c>
+      <c r="F57" s="11" t="n">
+        <v>-17.4418604651163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>-24</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>-70</v>
+      <c r="B58" s="11" t="n">
+        <v>-24.2424242424242</v>
+      </c>
+      <c r="C58" s="11" t="n">
+        <v>17.948717948718</v>
+      </c>
+      <c r="D58" s="11" t="n">
+        <v>12.8571428571429</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <v>-6.54205607476636</v>
+      </c>
+      <c r="F58" s="11" t="n">
+        <v>-16.6666666666667</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>-25</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>-73</v>
+      <c r="B59" s="11" t="n">
+        <v>-21.7391304347826</v>
+      </c>
+      <c r="C59" s="11" t="n">
+        <v>6.12244897959184</v>
+      </c>
+      <c r="D59" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="E59" s="11" t="n">
+        <v>0.787401574803148</v>
+      </c>
+      <c r="F59" s="11" t="n">
+        <v>-14.7773279352227</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>-33</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>-78</v>
+      <c r="B60" s="11" t="n">
+        <v>-24.6268656716418</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>1.76991150442478</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>22.9885057471264</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>-4.69798657718121</v>
+      </c>
+      <c r="F60" s="11" t="n">
+        <v>-13.953488372093</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>-36</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>-13</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>-81</v>
+      <c r="B61" s="11" t="n">
+        <v>-23.6842105263158</v>
+      </c>
+      <c r="C61" s="11" t="n">
+        <v>2.32558139534884</v>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>-7.64705882352941</v>
+      </c>
+      <c r="F61" s="11" t="n">
+        <v>-13.0016051364366</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>-30</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>-16</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>-75</v>
+      <c r="B62" s="11" t="n">
+        <v>-18.2926829268293</v>
+      </c>
+      <c r="C62" s="11" t="n">
+        <v>2.06896551724138</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>32.3809523809524</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>-8.64864864864865</v>
+      </c>
+      <c r="F62" s="11" t="n">
+        <v>-10.9970674486804</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>-25</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>-74</v>
+      <c r="B63" s="11" t="n">
+        <v>-14.2857142857143</v>
+      </c>
+      <c r="C63" s="11" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="D63" s="11" t="n">
+        <v>36.036036036036</v>
+      </c>
+      <c r="E63" s="11" t="n">
+        <v>-4.56852791878173</v>
+      </c>
+      <c r="F63" s="11" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>-22</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>-85</v>
+      <c r="B64" s="11" t="n">
+        <v>-11.6402116402116</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>2.25988700564972</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>32.520325203252</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>-1.4018691588785</v>
+      </c>
+      <c r="F64" s="11" t="n">
+        <v>-10.4551045510455</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>-23</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>-65</v>
+      <c r="B65" s="11" t="n">
+        <v>-11.1111111111111</v>
+      </c>
+      <c r="C65" s="11" t="n">
+        <v>0.515463917525771</v>
+      </c>
+      <c r="D65" s="11" t="n">
+        <v>30.5343511450382</v>
+      </c>
+      <c r="E65" s="11" t="n">
+        <v>6.30630630630631</v>
+      </c>
+      <c r="F65" s="11" t="n">
+        <v>-7.57575757575758</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>-32</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>-45</v>
+      <c r="B66" s="11" t="n">
+        <v>-13.9737991266376</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>0.952380952380949</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>34.0425531914894</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <v>6.03448275862069</v>
+      </c>
+      <c r="F66" s="11" t="n">
+        <v>-4.91266375545851</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>-25</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>6</v>
+      <c r="B67" s="11" t="n">
+        <v>-10.3305785123967</v>
+      </c>
+      <c r="C67" s="11" t="n">
+        <v>5.47945205479452</v>
+      </c>
+      <c r="D67" s="11" t="n">
+        <v>33.7662337662338</v>
+      </c>
+      <c r="E67" s="11" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F67" s="11" t="n">
+        <v>0.620475698035161</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>-33</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>36</v>
+      <c r="B68" s="11" t="n">
+        <v>-12.5475285171103</v>
+      </c>
+      <c r="C68" s="11" t="n">
+        <v>9.82905982905984</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>39.375</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>16.9811320754717</v>
+      </c>
+      <c r="F68" s="11" t="n">
+        <v>3.49175557710961</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>-31</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>72</v>
+      <c r="B69" s="11" t="n">
+        <v>-11.1111111111111</v>
+      </c>
+      <c r="C69" s="11" t="n">
+        <v>6.69291338582678</v>
+      </c>
+      <c r="D69" s="11" t="n">
+        <v>41.4634146341463</v>
+      </c>
+      <c r="E69" s="11" t="n">
+        <v>18.2456140350877</v>
+      </c>
+      <c r="F69" s="11" t="n">
+        <v>6.58737419945106</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>-33</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>92</v>
+      <c r="B70" s="11" t="n">
+        <v>-11.2627986348123</v>
+      </c>
+      <c r="C70" s="11" t="n">
+        <v>6.56934306569343</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>41.1428571428572</v>
+      </c>
+      <c r="E70" s="11" t="n">
+        <v>20.8754208754209</v>
+      </c>
+      <c r="F70" s="11" t="n">
+        <v>8.02792321116927</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>-26</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>92</v>
+      <c r="B71" s="11" t="n">
+        <v>-8.58085808580858</v>
+      </c>
+      <c r="C71" s="11" t="n">
+        <v>5.22648083623694</v>
+      </c>
+      <c r="D71" s="11" t="n">
+        <v>44.4444444444444</v>
+      </c>
+      <c r="E71" s="11" t="n">
+        <v>20.8333333333333</v>
+      </c>
+      <c r="F71" s="11" t="n">
+        <v>7.58450123660346</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>-35</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>79</v>
+      <c r="B72" s="11" t="n">
+        <v>-10.8695652173913</v>
+      </c>
+      <c r="C72" s="11" t="n">
+        <v>7.26072607260726</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>39.6907216494845</v>
+      </c>
+      <c r="E72" s="11" t="n">
+        <v>22.0496894409938</v>
+      </c>
+      <c r="F72" s="11" t="n">
+        <v>6.21557828481512</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>-45</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>85</v>
+      <c r="B73" s="11" t="n">
+        <v>-13.1964809384164</v>
+      </c>
+      <c r="C73" s="11" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>38.423645320197</v>
+      </c>
+      <c r="E73" s="11" t="n">
+        <v>23.2142857142857</v>
+      </c>
+      <c r="F73" s="11" t="n">
+        <v>6.44427596664139</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>-49</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>74</v>
+      <c r="B74" s="11" t="n">
+        <v>-13.6871508379888</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>3.30330330330331</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>35.377358490566</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <v>20.9631728045326</v>
+      </c>
+      <c r="F74" s="11" t="n">
+        <v>5.35455861070913</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>-51</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <v>79</v>
+      <c r="B75" s="11" t="n">
+        <v>-13.6363636363636</v>
+      </c>
+      <c r="C75" s="11" t="n">
+        <v>4.31034482758621</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>30.5309734513274</v>
+      </c>
+      <c r="E75" s="11" t="n">
+        <v>19.5652173913043</v>
+      </c>
+      <c r="F75" s="11" t="n">
+        <v>5.4861111111111</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>-61</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>87</v>
+      <c r="B76" s="11" t="n">
+        <v>-15.4040404040404</v>
+      </c>
+      <c r="C76" s="11" t="n">
+        <v>1.92307692307692</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>19.2105263157895</v>
+      </c>
+      <c r="F76" s="11" t="n">
+        <v>5.8428475486904</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>-56</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>68</v>
+      <c r="B77" s="11" t="n">
+        <v>-13.5922330097087</v>
+      </c>
+      <c r="C77" s="11" t="n">
+        <v>1.59151193633953</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>32.9059829059829</v>
+      </c>
+      <c r="E77" s="11" t="n">
+        <v>17.0483460559796</v>
+      </c>
+      <c r="F77" s="11" t="n">
+        <v>4.39276485788114</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>-65</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>80</v>
+      <c r="B78" s="11" t="n">
+        <v>-15.1869158878505</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>0.251256281407031</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>33.0612244897959</v>
+      </c>
+      <c r="E78" s="11" t="n">
+        <v>15.8024691358025</v>
+      </c>
+      <c r="F78" s="11" t="n">
+        <v>5.0314465408805</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>-69</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <v>76</v>
+      <c r="B79" s="11" t="n">
+        <v>-15.5756207674944</v>
+      </c>
+      <c r="C79" s="11" t="n">
+        <v>-1.43884892086331</v>
+      </c>
+      <c r="D79" s="11" t="n">
+        <v>33.4645669291339</v>
+      </c>
+      <c r="E79" s="11" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="F79" s="11" t="n">
+        <v>4.60606060606061</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>-69</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>56</v>
+      <c r="B80" s="11" t="n">
+        <v>-15.0984682713348</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>-2.07373271889401</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>33.7078651685393</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>12.1559633027523</v>
+      </c>
+      <c r="F80" s="11" t="n">
+        <v>3.25770796974985</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="1" t="n">
-        <v>-67</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>-16</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>58</v>
+      <c r="B81" s="11" t="n">
+        <v>-14.2553191489362</v>
+      </c>
+      <c r="C81" s="11" t="n">
+        <v>-3.53982300884956</v>
+      </c>
+      <c r="D81" s="11" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="E81" s="11" t="n">
+        <v>11.7516629711752</v>
+      </c>
+      <c r="F81" s="11" t="n">
+        <v>3.27313769751694</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="1" t="n">
-        <v>-53</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>-13</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>60</v>
+      <c r="B82" s="11" t="n">
+        <v>-11.018711018711</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>-2.80777537796977</v>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>36.6197183098591</v>
+      </c>
+      <c r="E82" s="11" t="n">
+        <v>11.3006396588486</v>
+      </c>
+      <c r="F82" s="11" t="n">
+        <v>3.29127811300054</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="1" t="n">
-        <v>-47</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>-18</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>55</v>
+      <c r="B83" s="11" t="n">
+        <v>-9.49494949494949</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>-3.76569037656904</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>35.7142857142857</v>
+      </c>
+      <c r="E83" s="11" t="n">
+        <v>11.1111111111111</v>
+      </c>
+      <c r="F83" s="11" t="n">
+        <v>2.92087095061073</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="1" t="n">
-        <v>-39</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F84" s="1" t="n">
-        <v>70</v>
+      <c r="B84" s="11" t="n">
+        <v>-7.73809523809523</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>-1.63934426229508</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>34.7682119205298</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <v>12.3232323232323</v>
+      </c>
+      <c r="F84" s="11" t="n">
+        <v>3.62882322446865</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="1" t="n">
-        <v>-40</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>-22</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>65</v>
+      <c r="B85" s="11" t="n">
+        <v>-7.75193798449613</v>
+      </c>
+      <c r="C85" s="11" t="n">
+        <v>-4.296875</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>29.4670846394984</v>
+      </c>
+      <c r="E85" s="11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F85" s="11" t="n">
+        <v>3.25977933801405</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="1" t="n">
-        <v>-28</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>-17</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>80</v>
+      <c r="B86" s="11" t="n">
+        <v>-5.32319391634981</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>-3.21361058601134</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>26.8072289156626</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>11.7307692307692</v>
+      </c>
+      <c r="F86" s="11" t="n">
+        <v>3.9119804400978</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="1" t="n">
-        <v>-40</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>101</v>
+      <c r="B87" s="11" t="n">
+        <v>-7.32600732600732</v>
+      </c>
+      <c r="C87" s="11" t="n">
+        <v>-0.18621973929237</v>
+      </c>
+      <c r="D87" s="11" t="n">
+        <v>26.2390670553936</v>
+      </c>
+      <c r="E87" s="11" t="n">
+        <v>10.0934579439252</v>
+      </c>
+      <c r="F87" s="11" t="n">
+        <v>4.84412470023981</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="1" t="n">
-        <v>-46</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>102</v>
+      <c r="B88" s="11" t="n">
+        <v>-8.18505338078291</v>
+      </c>
+      <c r="C88" s="11" t="n">
+        <v>1.27041742286751</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>28.5302593659942</v>
+      </c>
+      <c r="E88" s="11" t="n">
+        <v>8.87681159420291</v>
+      </c>
+      <c r="F88" s="11" t="n">
+        <v>4.77975632614809</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="1" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>99</v>
+      <c r="B89" s="11" t="n">
+        <v>-8.56164383561644</v>
+      </c>
+      <c r="C89" s="11" t="n">
+        <v>2.85204991087344</v>
+      </c>
+      <c r="D89" s="11" t="n">
+        <v>26.5927977839335</v>
+      </c>
+      <c r="E89" s="11" t="n">
+        <v>10.3571428571429</v>
+      </c>
+      <c r="F89" s="11" t="n">
+        <v>4.51848471017799</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="1" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <v>91</v>
+      <c r="B90" s="11" t="n">
+        <v>-8.38926174496645</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>2.05479452054795</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>28.021978021978</v>
+      </c>
+      <c r="E90" s="11" t="n">
+        <v>9.45709281961471</v>
+      </c>
+      <c r="F90" s="11" t="n">
+        <v>4.05345211581292</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B91" s="1" t="n">
-        <v>-51</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>110</v>
+      <c r="B91" s="11" t="n">
+        <v>-8.36065573770491</v>
+      </c>
+      <c r="C91" s="11" t="n">
+        <v>3.52941176470589</v>
+      </c>
+      <c r="D91" s="11" t="n">
+        <v>26.5415549597855</v>
+      </c>
+      <c r="E91" s="11" t="n">
+        <v>9.32642487046633</v>
+      </c>
+      <c r="F91" s="11" t="n">
+        <v>4.81400437636761</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="1" t="n">
-        <v>-63</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="F92" s="1" t="n">
-        <v>103</v>
+      <c r="B92" s="11" t="n">
+        <v>-10.0158982511924</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>3.10965630114566</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>26.3020833333333</v>
+      </c>
+      <c r="E92" s="11" t="n">
+        <v>11.9250425894378</v>
+      </c>
+      <c r="F92" s="11" t="n">
+        <v>4.39232409381662</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B93" s="1" t="n">
-        <v>-64</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="F93" s="1" t="n">
-        <v>108</v>
+      <c r="B93" s="11" t="n">
+        <v>-9.96884735202492</v>
+      </c>
+      <c r="C93" s="11" t="n">
+        <v>2.39234449760766</v>
+      </c>
+      <c r="D93" s="11" t="n">
+        <v>26.7175572519084</v>
+      </c>
+      <c r="E93" s="11" t="n">
+        <v>11.0743801652893</v>
+      </c>
+      <c r="F93" s="11" t="n">
+        <v>4.51882845188285</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="1" t="n">
-        <v>-64</v>
-      </c>
-      <c r="C94" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="F94" s="1" t="n">
-        <v>123</v>
+      <c r="B94" s="11" t="n">
+        <v>-9.75609756097561</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>3.92464678178963</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>26.1845386533666</v>
+      </c>
+      <c r="E94" s="11" t="n">
+        <v>11.2012987012987</v>
+      </c>
+      <c r="F94" s="11" t="n">
+        <v>5.0430504305043</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="1" t="n">
-        <v>-68</v>
-      </c>
-      <c r="C95" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <v>118</v>
+      <c r="B95" s="11" t="n">
+        <v>-10.1040118870728</v>
+      </c>
+      <c r="C95" s="11" t="n">
+        <v>5.53846153846154</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>26.0340632603406</v>
+      </c>
+      <c r="E95" s="11" t="n">
+        <v>10.0946372239748</v>
+      </c>
+      <c r="F95" s="11" t="n">
+        <v>4.7275641025641</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="1" t="n">
-        <v>-73</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>137</v>
+      <c r="B96" s="11" t="n">
+        <v>-10.6259097525473</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>5.53064275037369</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>24.1217798594848</v>
+      </c>
+      <c r="E96" s="11" t="n">
+        <v>10.4938271604938</v>
+      </c>
+      <c r="F96" s="11" t="n">
+        <v>5.41288028447253</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="1" t="n">
-        <v>-69</v>
-      </c>
-      <c r="C97" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="F97" s="1" t="n">
-        <v>137</v>
+      <c r="B97" s="11" t="n">
+        <v>-9.87124463519313</v>
+      </c>
+      <c r="C97" s="11" t="n">
+        <v>6.90161527165933</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>23.394495412844</v>
+      </c>
+      <c r="E97" s="11" t="n">
+        <v>9.89505247376312</v>
+      </c>
+      <c r="F97" s="11" t="n">
+        <v>5.28753377074489</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="1" t="n">
-        <v>-65</v>
-      </c>
-      <c r="C98" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>148</v>
+      <c r="B98" s="11" t="n">
+        <v>-9.1164095371669</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>5.3370786516854</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>24.7727272727273</v>
+      </c>
+      <c r="E98" s="11" t="n">
+        <v>10.5882352941177</v>
+      </c>
+      <c r="F98" s="11" t="n">
+        <v>5.59757942511348</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B99" s="1" t="n">
-        <v>-70</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>168</v>
+      <c r="B99" s="11" t="n">
+        <v>-9.62861072902338</v>
+      </c>
+      <c r="C99" s="11" t="n">
+        <v>4.36562073669851</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>22.8571428571429</v>
+      </c>
+      <c r="E99" s="11" t="n">
+        <v>11.0791366906475</v>
+      </c>
+      <c r="F99" s="11" t="n">
+        <v>6.21761658031088</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="1" t="n">
-        <v>-74</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>165</v>
+      <c r="B100" s="11" t="n">
+        <v>-10.0271002710027</v>
+      </c>
+      <c r="C100" s="11" t="n">
+        <v>3.98936170212767</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>22.5806451612903</v>
+      </c>
+      <c r="E100" s="11" t="n">
+        <v>11.5492957746479</v>
+      </c>
+      <c r="F100" s="11" t="n">
+        <v>5.9652928416486</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B101" s="1" t="n">
-        <v>-70</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>166</v>
+      <c r="B101" s="11" t="n">
+        <v>-9.35828877005348</v>
+      </c>
+      <c r="C101" s="11" t="n">
+        <v>2.71317829457365</v>
+      </c>
+      <c r="D101" s="11" t="n">
+        <v>24.2616033755274</v>
+      </c>
+      <c r="E101" s="11" t="n">
+        <v>11.2947658402204</v>
+      </c>
+      <c r="F101" s="11" t="n">
+        <v>5.85537918871253</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="1" t="n">
-        <v>-58</v>
-      </c>
-      <c r="C102" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>174</v>
+      <c r="B102" s="11" t="n">
+        <v>-7.69230769230769</v>
+      </c>
+      <c r="C102" s="11" t="n">
+        <v>2.66497461928934</v>
+      </c>
+      <c r="D102" s="11" t="n">
+        <v>24.8434237995825</v>
+      </c>
+      <c r="E102" s="11" t="n">
+        <v>11.7092866756393</v>
+      </c>
+      <c r="F102" s="11" t="n">
+        <v>6.01036269430051</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B103" s="1" t="n">
-        <v>-52</v>
-      </c>
-      <c r="C103" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="F103" s="1" t="n">
-        <v>177</v>
+      <c r="B103" s="11" t="n">
+        <v>-6.81520314547838</v>
+      </c>
+      <c r="C103" s="11" t="n">
+        <v>4.14572864321607</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>26.5979381443299</v>
+      </c>
+      <c r="E103" s="11" t="n">
+        <v>12.5164690382082</v>
+      </c>
+      <c r="F103" s="11" t="n">
+        <v>5.95158036314727</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="1" t="n">
-        <v>-43</v>
-      </c>
-      <c r="C104" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="F104" s="1" t="n">
-        <v>182</v>
+      <c r="B104" s="11" t="n">
+        <v>-5.54123711340206</v>
+      </c>
+      <c r="C104" s="11" t="n">
+        <v>3.82244143033292</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>25.6565656565657</v>
+      </c>
+      <c r="E104" s="11" t="n">
+        <v>12.6451612903226</v>
+      </c>
+      <c r="F104" s="11" t="n">
+        <v>5.98487339690892</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="1" t="n">
-        <v>-32</v>
-      </c>
-      <c r="C105" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="F105" s="1" t="n">
-        <v>189</v>
+      <c r="B105" s="11" t="n">
+        <v>-4.06091370558376</v>
+      </c>
+      <c r="C105" s="11" t="n">
+        <v>3.7621359223301</v>
+      </c>
+      <c r="D105" s="11" t="n">
+        <v>25.4980079681275</v>
+      </c>
+      <c r="E105" s="11" t="n">
+        <v>12.4365482233503</v>
+      </c>
+      <c r="F105" s="11" t="n">
+        <v>6.10071013557134</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B106" s="1" t="n">
-        <v>-11</v>
-      </c>
-      <c r="C106" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="F106" s="1" t="n">
-        <v>248</v>
+      <c r="B106" s="11" t="n">
+        <v>-1.39593908629442</v>
+      </c>
+      <c r="C106" s="11" t="n">
+        <v>6.06796116504855</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>27.8884462151394</v>
+      </c>
+      <c r="E106" s="11" t="n">
+        <v>14.8477157360406</v>
+      </c>
+      <c r="F106" s="11" t="n">
+        <v>8.005164622337</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B107" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="C107" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F107" s="1" t="n">
-        <v>-1</v>
+      <c r="B107" s="11" t="n">
+        <v>-53.8461538461539</v>
+      </c>
+      <c r="C107" s="11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D107" s="11" t="n">
+        <v>-21.4285714285714</v>
+      </c>
+      <c r="E107" s="11" t="n">
+        <v>-23.0769230769231</v>
+      </c>
+      <c r="F107" s="11" t="n">
+        <v>-1.78571428571429</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="1" t="n">
-        <v>-17</v>
-      </c>
-      <c r="C108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F108" s="1" t="n">
-        <v>-25</v>
+      <c r="B108" s="11" t="n">
+        <v>-45.945945945946</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>5.40540540540539</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>-3.57142857142857</v>
+      </c>
+      <c r="E108" s="11" t="n">
+        <v>-19.5652173913043</v>
+      </c>
+      <c r="F108" s="11" t="n">
+        <v>-18.1159420289855</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="1" t="n">
-        <v>-12</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F109" s="1" t="n">
-        <v>-26</v>
+      <c r="B109" s="11" t="n">
+        <v>-23.5294117647059</v>
+      </c>
+      <c r="C109" s="11" t="n">
+        <v>3.38983050847457</v>
+      </c>
+      <c r="D109" s="11" t="n">
+        <v>-23.5294117647059</v>
+      </c>
+      <c r="E109" s="11" t="n">
+        <v>-18.4615384615385</v>
+      </c>
+      <c r="F109" s="11" t="n">
+        <v>-12.621359223301</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B110" s="1" t="n">
-        <v>-12</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>-15</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>-44</v>
+      <c r="B110" s="11" t="n">
+        <v>-20.6896551724138</v>
+      </c>
+      <c r="C110" s="11" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>-22.7272727272727</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>-8.53658536585366</v>
+      </c>
+      <c r="F110" s="11" t="n">
+        <v>-15.4929577464789</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="1" t="n">
-        <v>-14</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>-19</v>
-      </c>
-      <c r="E111" s="1" t="n">
+      <c r="B111" s="11" t="n">
+        <v>-18.6666666666667</v>
+      </c>
+      <c r="C111" s="11" t="n">
+        <v>2.17391304347827</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>-24.0506329113924</v>
+      </c>
+      <c r="E111" s="11" t="n">
         <v>-9</v>
       </c>
-      <c r="F111" s="1" t="n">
-        <v>-54</v>
+      <c r="F111" s="11" t="n">
+        <v>-15.4285714285714</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="1" t="n">
-        <v>-18</v>
-      </c>
-      <c r="C112" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1" t="n">
-        <v>-21</v>
-      </c>
-      <c r="E112" s="1" t="n">
+      <c r="B112" s="11" t="n">
         <v>-20</v>
       </c>
-      <c r="F112" s="1" t="n">
-        <v>-70</v>
+      <c r="C112" s="11" t="n">
+        <v>2.88461538461537</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>-22.5806451612903</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <v>-15.625</v>
+      </c>
+      <c r="F112" s="11" t="n">
+        <v>-16.6270783847981</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="1" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <v>-18</v>
-      </c>
-      <c r="F113" s="1" t="n">
-        <v>-67</v>
+      <c r="B113" s="11" t="n">
+        <v>-9.9009900990099</v>
+      </c>
+      <c r="C113" s="11" t="n">
+        <v>0.869565217391299</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>-18.6915887850467</v>
+      </c>
+      <c r="E113" s="11" t="n">
+        <v>-12.6760563380282</v>
+      </c>
+      <c r="F113" s="11" t="n">
+        <v>-13.9293139293139</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B114" s="1" t="n">
-        <v>-12</v>
-      </c>
-      <c r="C114" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" s="1" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E114" s="1" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F114" s="1" t="n">
-        <v>-72</v>
+      <c r="B114" s="11" t="n">
+        <v>-10.3448275862069</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>1.51515151515151</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="E114" s="11" t="n">
+        <v>-9.55414012738853</v>
+      </c>
+      <c r="F114" s="11" t="n">
+        <v>-13.2841328413284</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="1" t="n">
-        <v>-21</v>
-      </c>
-      <c r="C115" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D115" s="1" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>-14</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>-79</v>
+      <c r="B115" s="11" t="n">
+        <v>-15.6716417910448</v>
+      </c>
+      <c r="C115" s="11" t="n">
+        <v>2.7027027027027</v>
+      </c>
+      <c r="D115" s="11" t="n">
+        <v>-19.4244604316547</v>
+      </c>
+      <c r="E115" s="11" t="n">
+        <v>-8.28402366863905</v>
+      </c>
+      <c r="F115" s="11" t="n">
+        <v>-13.0148270181219</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="1" t="n">
-        <v>-17</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D116" s="1" t="n">
-        <v>-36</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>-22</v>
-      </c>
-      <c r="F116" s="1" t="n">
-        <v>-87</v>
+      <c r="B116" s="11" t="n">
+        <v>-11.3333333333333</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>7.78443113772456</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>-23.841059602649</v>
+      </c>
+      <c r="E116" s="11" t="n">
+        <v>-11.7021276595745</v>
+      </c>
+      <c r="F116" s="11" t="n">
+        <v>-13.0630630630631</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="1" t="n">
-        <v>-25</v>
-      </c>
-      <c r="C117" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D117" s="1" t="n">
-        <v>-41</v>
-      </c>
-      <c r="E117" s="1" t="n">
-        <v>-32</v>
-      </c>
-      <c r="F117" s="1" t="n">
-        <v>-103</v>
+      <c r="B117" s="11" t="n">
+        <v>-14.9700598802395</v>
+      </c>
+      <c r="C117" s="11" t="n">
+        <v>4.97237569060773</v>
+      </c>
+      <c r="D117" s="11" t="n">
+        <v>-25.1533742331288</v>
+      </c>
+      <c r="E117" s="11" t="n">
+        <v>-15.1658767772512</v>
+      </c>
+      <c r="F117" s="11" t="n">
+        <v>-14.1483516483517</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B118" s="1" t="n">
-        <v>-27</v>
-      </c>
-      <c r="C118" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D118" s="1" t="n">
-        <v>-37</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>-37</v>
-      </c>
-      <c r="F118" s="1" t="n">
-        <v>-111</v>
+      <c r="B118" s="11" t="n">
+        <v>-14.6739130434783</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>4.61538461538462</v>
+      </c>
+      <c r="D118" s="11" t="n">
+        <v>-21.6374269005848</v>
+      </c>
+      <c r="E118" s="11" t="n">
+        <v>-15.6779661016949</v>
+      </c>
+      <c r="F118" s="11" t="n">
+        <v>-13.9974779319042</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B119" s="1" t="n">
-        <v>-24</v>
-      </c>
-      <c r="C119" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D119" s="1" t="n">
-        <v>-47</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>-31</v>
-      </c>
-      <c r="F119" s="1" t="n">
-        <v>-126</v>
+      <c r="B119" s="11" t="n">
+        <v>-12.1827411167513</v>
+      </c>
+      <c r="C119" s="11" t="n">
+        <v>2.83018867924529</v>
+      </c>
+      <c r="D119" s="11" t="n">
+        <v>-24.8677248677249</v>
+      </c>
+      <c r="E119" s="11" t="n">
+        <v>-12.6016260162602</v>
+      </c>
+      <c r="F119" s="11" t="n">
+        <v>-14.4661308840413</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B120" s="1" t="n">
-        <v>-33</v>
-      </c>
-      <c r="C120" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>-56</v>
-      </c>
-      <c r="E120" s="1" t="n">
-        <v>-49</v>
-      </c>
-      <c r="F120" s="1" t="n">
-        <v>-181</v>
+      <c r="B120" s="11" t="n">
+        <v>-15.2073732718894</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>1.29870129870129</v>
+      </c>
+      <c r="D120" s="11" t="n">
+        <v>-27.1844660194175</v>
+      </c>
+      <c r="E120" s="11" t="n">
+        <v>-17.3758865248227</v>
+      </c>
+      <c r="F120" s="11" t="n">
+        <v>-18.6022610483042</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B121" s="1" t="n">
-        <v>-35</v>
-      </c>
-      <c r="C121" s="1" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>-63</v>
-      </c>
-      <c r="E121" s="1" t="n">
-        <v>-67</v>
-      </c>
-      <c r="F121" s="1" t="n">
-        <v>-216</v>
+      <c r="B121" s="11" t="n">
+        <v>-15.2173913043478</v>
+      </c>
+      <c r="C121" s="11" t="n">
+        <v>-3.50194552529183</v>
+      </c>
+      <c r="D121" s="11" t="n">
+        <v>-28.2511210762332</v>
+      </c>
+      <c r="E121" s="11" t="n">
+        <v>-21.6129032258065</v>
+      </c>
+      <c r="F121" s="11" t="n">
+        <v>-20.2436738519213</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B122" s="1" t="n">
-        <v>-38</v>
-      </c>
-      <c r="C122" s="1" t="n">
-        <v>-7</v>
-      </c>
-      <c r="D122" s="1" t="n">
-        <v>-52</v>
-      </c>
-      <c r="E122" s="1" t="n">
-        <v>-76</v>
-      </c>
-      <c r="F122" s="1" t="n">
-        <v>-269</v>
+      <c r="B122" s="11" t="n">
+        <v>-15.3225806451613</v>
+      </c>
+      <c r="C122" s="11" t="n">
+        <v>-2.5830258302583</v>
+      </c>
+      <c r="D122" s="11" t="n">
+        <v>-22.4137931034483</v>
+      </c>
+      <c r="E122" s="11" t="n">
+        <v>-22.5519287833828</v>
+      </c>
+      <c r="F122" s="11" t="n">
+        <v>-23.0901287553648</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B123" s="1" t="n">
-        <v>-42</v>
-      </c>
-      <c r="C123" s="1" t="n">
-        <v>-11</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <v>-58</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <v>-76</v>
-      </c>
-      <c r="F123" s="1" t="n">
-        <v>-271</v>
+      <c r="B123" s="11" t="n">
+        <v>-16.1538461538462</v>
+      </c>
+      <c r="C123" s="11" t="n">
+        <v>-3.76712328767124</v>
+      </c>
+      <c r="D123" s="11" t="n">
+        <v>-23.4817813765182</v>
+      </c>
+      <c r="E123" s="11" t="n">
+        <v>-21.1699164345404</v>
+      </c>
+      <c r="F123" s="11" t="n">
+        <v>-21.8901453957997</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B124" s="1" t="n">
-        <v>-45</v>
-      </c>
-      <c r="C124" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" s="1" t="n">
-        <v>-53</v>
-      </c>
-      <c r="E124" s="1" t="n">
-        <v>-74</v>
-      </c>
-      <c r="F124" s="1" t="n">
-        <v>-290</v>
+      <c r="B124" s="11" t="n">
+        <v>-16.2454873646209</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>1.32450331125829</v>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>-20.3846153846154</v>
+      </c>
+      <c r="E124" s="11" t="n">
+        <v>-19.6286472148541</v>
+      </c>
+      <c r="F124" s="11" t="n">
+        <v>-22.2222222222222</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B125" s="1" t="n">
-        <v>-43</v>
-      </c>
-      <c r="C125" s="1" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D125" s="1" t="n">
-        <v>-49</v>
-      </c>
-      <c r="E125" s="1" t="n">
-        <v>-86</v>
-      </c>
-      <c r="F125" s="1" t="n">
-        <v>-302</v>
+      <c r="B125" s="11" t="n">
+        <v>-14.9825783972125</v>
+      </c>
+      <c r="C125" s="11" t="n">
+        <v>-1.23076923076924</v>
+      </c>
+      <c r="D125" s="11" t="n">
+        <v>-18.0811808118081</v>
+      </c>
+      <c r="E125" s="11" t="n">
+        <v>-21.882951653944</v>
+      </c>
+      <c r="F125" s="11" t="n">
+        <v>-22.3703703703704</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B126" s="1" t="n">
-        <v>-36</v>
-      </c>
-      <c r="C126" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="D126" s="1" t="n">
-        <v>-48</v>
-      </c>
-      <c r="E126" s="1" t="n">
-        <v>-96</v>
-      </c>
-      <c r="F126" s="1" t="n">
-        <v>-313</v>
+      <c r="B126" s="11" t="n">
+        <v>-12.1621621621622</v>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>5.08982035928143</v>
+      </c>
+      <c r="D126" s="11" t="n">
+        <v>-17.0818505338078</v>
+      </c>
+      <c r="E126" s="11" t="n">
+        <v>-23.1884057971015</v>
+      </c>
+      <c r="F126" s="11" t="n">
+        <v>-22.2934472934473</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B127" s="1" t="n">
-        <v>-40</v>
-      </c>
-      <c r="C127" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D127" s="1" t="n">
-        <v>-46</v>
-      </c>
-      <c r="E127" s="1" t="n">
-        <v>-91</v>
-      </c>
-      <c r="F127" s="1" t="n">
-        <v>-324</v>
+      <c r="B127" s="11" t="n">
+        <v>-12.9449838187702</v>
+      </c>
+      <c r="C127" s="11" t="n">
+        <v>5.8139534883721</v>
+      </c>
+      <c r="D127" s="11" t="n">
+        <v>-16.0278745644599</v>
+      </c>
+      <c r="E127" s="11" t="n">
+        <v>-21.3114754098361</v>
+      </c>
+      <c r="F127" s="11" t="n">
+        <v>-22.2527472527473</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B128" s="1" t="n">
-        <v>-46</v>
-      </c>
-      <c r="C128" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D128" s="1" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E128" s="1" t="n">
-        <v>-98</v>
-      </c>
-      <c r="F128" s="1" t="n">
-        <v>-331</v>
+      <c r="B128" s="11" t="n">
+        <v>-14.2414860681115</v>
+      </c>
+      <c r="C128" s="11" t="n">
+        <v>5.23415977961432</v>
+      </c>
+      <c r="D128" s="11" t="n">
+        <v>-13.5593220338983</v>
+      </c>
+      <c r="E128" s="11" t="n">
+        <v>-22.2727272727273</v>
+      </c>
+      <c r="F128" s="11" t="n">
+        <v>-21.7906517445688</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="1" t="n">
-        <v>-41</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>-39</v>
-      </c>
-      <c r="E129" s="1" t="n">
-        <v>-96</v>
-      </c>
-      <c r="F129" s="1" t="n">
-        <v>-329</v>
+      <c r="B129" s="11" t="n">
+        <v>-12.2388059701493</v>
+      </c>
+      <c r="C129" s="11" t="n">
+        <v>7.81671159029649</v>
+      </c>
+      <c r="D129" s="11" t="n">
+        <v>-12.9568106312292</v>
+      </c>
+      <c r="E129" s="11" t="n">
+        <v>-21.1920529801324</v>
+      </c>
+      <c r="F129" s="11" t="n">
+        <v>-20.8756345177665</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B130" s="1" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="D130" s="1" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E130" s="1" t="n">
-        <v>-95</v>
-      </c>
-      <c r="F130" s="1" t="n">
-        <v>-320</v>
+      <c r="B130" s="11" t="n">
+        <v>-14.0449438202247</v>
+      </c>
+      <c r="C130" s="11" t="n">
+        <v>7.57180156657964</v>
+      </c>
+      <c r="D130" s="11" t="n">
+        <v>-12.8617363344052</v>
+      </c>
+      <c r="E130" s="11" t="n">
+        <v>-20.6521739130435</v>
+      </c>
+      <c r="F130" s="11" t="n">
+        <v>-19.8019801980198</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B131" s="1" t="n">
-        <v>-42</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="D131" s="1" t="n">
-        <v>-45</v>
-      </c>
-      <c r="E131" s="1" t="n">
-        <v>-98</v>
-      </c>
-      <c r="F131" s="1" t="n">
-        <v>-316</v>
+      <c r="B131" s="11" t="n">
+        <v>-11.5702479338843</v>
+      </c>
+      <c r="C131" s="11" t="n">
+        <v>6.01503759398496</v>
+      </c>
+      <c r="D131" s="11" t="n">
+        <v>-13.8036809815951</v>
+      </c>
+      <c r="E131" s="11" t="n">
+        <v>-20.8955223880597</v>
+      </c>
+      <c r="F131" s="11" t="n">
+        <v>-18.9221556886228</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B132" s="1" t="n">
-        <v>-44</v>
-      </c>
-      <c r="C132" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="D132" s="1" t="n">
-        <v>-39</v>
-      </c>
-      <c r="E132" s="1" t="n">
-        <v>-99</v>
-      </c>
-      <c r="F132" s="1" t="n">
-        <v>-337</v>
+      <c r="B132" s="11" t="n">
+        <v>-11.7647058823529</v>
+      </c>
+      <c r="C132" s="11" t="n">
+        <v>8.02919708029197</v>
+      </c>
+      <c r="D132" s="11" t="n">
+        <v>-11.5044247787611</v>
+      </c>
+      <c r="E132" s="11" t="n">
+        <v>-20.5821205821206</v>
+      </c>
+      <c r="F132" s="11" t="n">
+        <v>-19.5249130938586</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B133" s="1" t="n">
-        <v>-39</v>
-      </c>
-      <c r="C133" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="D133" s="1" t="n">
-        <v>-45</v>
-      </c>
-      <c r="E133" s="1" t="n">
-        <v>-95</v>
-      </c>
-      <c r="F133" s="1" t="n">
-        <v>-330</v>
+      <c r="B133" s="11" t="n">
+        <v>-10.0515463917526</v>
+      </c>
+      <c r="C133" s="11" t="n">
+        <v>8.00000000000001</v>
+      </c>
+      <c r="D133" s="11" t="n">
+        <v>-12.6050420168067</v>
+      </c>
+      <c r="E133" s="11" t="n">
+        <v>-19.4274028629857</v>
+      </c>
+      <c r="F133" s="11" t="n">
+        <v>-18.5915492957746</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B134" s="1" t="n">
-        <v>-42</v>
-      </c>
-      <c r="C134" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="D134" s="1" t="n">
-        <v>-54</v>
-      </c>
-      <c r="E134" s="1" t="n">
-        <v>-93</v>
-      </c>
-      <c r="F134" s="1" t="n">
-        <v>-334</v>
+      <c r="B134" s="11" t="n">
+        <v>-10.4218362282878</v>
+      </c>
+      <c r="C134" s="11" t="n">
+        <v>8.25688073394495</v>
+      </c>
+      <c r="D134" s="11" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="E134" s="11" t="n">
+        <v>-18.452380952381</v>
+      </c>
+      <c r="F134" s="11" t="n">
+        <v>-18.2513661202186</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B135" s="1" t="n">
-        <v>-52</v>
-      </c>
-      <c r="C135" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="D135" s="1" t="n">
-        <v>-52</v>
-      </c>
-      <c r="E135" s="1" t="n">
-        <v>-104</v>
-      </c>
-      <c r="F135" s="1" t="n">
-        <v>-344</v>
+      <c r="B135" s="11" t="n">
+        <v>-12.1495327102804</v>
+      </c>
+      <c r="C135" s="11" t="n">
+        <v>10.2222222222222</v>
+      </c>
+      <c r="D135" s="11" t="n">
+        <v>-13.4020618556701</v>
+      </c>
+      <c r="E135" s="11" t="n">
+        <v>-19.9233716475096</v>
+      </c>
+      <c r="F135" s="11" t="n">
+        <v>-18.2687201274562</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B136" s="1" t="n">
-        <v>-52</v>
-      </c>
-      <c r="C136" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="D136" s="1" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E136" s="1" t="n">
-        <v>-109</v>
-      </c>
-      <c r="F136" s="1" t="n">
-        <v>-346</v>
+      <c r="B136" s="11" t="n">
+        <v>-11.6071428571429</v>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>11.9565217391304</v>
+      </c>
+      <c r="D136" s="11" t="n">
+        <v>-12.531328320802</v>
+      </c>
+      <c r="E136" s="11" t="n">
+        <v>-20.1851851851852</v>
+      </c>
+      <c r="F136" s="11" t="n">
+        <v>-17.8534571723426</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B137" s="1" t="n">
-        <v>-48</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="D137" s="1" t="n">
-        <v>-42</v>
-      </c>
-      <c r="E137" s="1" t="n">
-        <v>-110</v>
-      </c>
-      <c r="F137" s="1" t="n">
-        <v>-359</v>
+      <c r="B137" s="11" t="n">
+        <v>-10.3225806451613</v>
+      </c>
+      <c r="C137" s="11" t="n">
+        <v>9.58333333333334</v>
+      </c>
+      <c r="D137" s="11" t="n">
+        <v>-10.3194103194103</v>
+      </c>
+      <c r="E137" s="11" t="n">
+        <v>-19.7841726618705</v>
+      </c>
+      <c r="F137" s="11" t="n">
+        <v>-17.9589794897449</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B138" s="1" t="n">
-        <v>-47</v>
-      </c>
-      <c r="C138" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="D138" s="1" t="n">
-        <v>-34</v>
-      </c>
-      <c r="E138" s="1" t="n">
-        <v>-108</v>
-      </c>
-      <c r="F138" s="1" t="n">
-        <v>-366</v>
+      <c r="B138" s="11" t="n">
+        <v>-9.87394957983193</v>
+      </c>
+      <c r="C138" s="11" t="n">
+        <v>11.0204081632653</v>
+      </c>
+      <c r="D138" s="11" t="n">
+        <v>-8.23244552058111</v>
+      </c>
+      <c r="E138" s="11" t="n">
+        <v>-19.047619047619</v>
+      </c>
+      <c r="F138" s="11" t="n">
+        <v>-17.7756192326372</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B139" s="1" t="n">
-        <v>-56</v>
-      </c>
-      <c r="C139" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="D139" s="1" t="n">
-        <v>-39</v>
-      </c>
-      <c r="E139" s="1" t="n">
-        <v>-111</v>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>-366</v>
+      <c r="B139" s="11" t="n">
+        <v>-11.2449799196787</v>
+      </c>
+      <c r="C139" s="11" t="n">
+        <v>8.203125</v>
+      </c>
+      <c r="D139" s="11" t="n">
+        <v>-9.26365795724465</v>
+      </c>
+      <c r="E139" s="11" t="n">
+        <v>-19.104991394148</v>
+      </c>
+      <c r="F139" s="11" t="n">
+        <v>-17.2235294117647</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B140" s="1" t="n">
-        <v>-45</v>
-      </c>
-      <c r="C140" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D140" s="1" t="n">
-        <v>-44</v>
-      </c>
-      <c r="E140" s="1" t="n">
-        <v>-109</v>
-      </c>
-      <c r="F140" s="1" t="n">
-        <v>-378</v>
+      <c r="B140" s="11" t="n">
+        <v>-8.89328063241107</v>
+      </c>
+      <c r="C140" s="11" t="n">
+        <v>5.59701492537315</v>
+      </c>
+      <c r="D140" s="11" t="n">
+        <v>-10.161662817552</v>
+      </c>
+      <c r="E140" s="11" t="n">
+        <v>-18.5059422750424</v>
+      </c>
+      <c r="F140" s="11" t="n">
+        <v>-17.291857273559</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B141" s="1" t="n">
-        <v>-36</v>
-      </c>
-      <c r="C141" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="D141" s="1" t="n">
-        <v>-44</v>
-      </c>
-      <c r="E141" s="1" t="n">
-        <v>-107</v>
-      </c>
-      <c r="F141" s="1" t="n">
-        <v>-376</v>
+      <c r="B141" s="11" t="n">
+        <v>-6.97674418604651</v>
+      </c>
+      <c r="C141" s="11" t="n">
+        <v>3.94265232974911</v>
+      </c>
+      <c r="D141" s="11" t="n">
+        <v>-9.86547085201793</v>
+      </c>
+      <c r="E141" s="11" t="n">
+        <v>-17.8036605657238</v>
+      </c>
+      <c r="F141" s="11" t="n">
+        <v>-16.8157423971377</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="1" t="n">
-        <v>-44</v>
-      </c>
-      <c r="C142" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D142" s="1" t="n">
-        <v>-43</v>
-      </c>
-      <c r="E142" s="1" t="n">
-        <v>-106</v>
-      </c>
-      <c r="F142" s="1" t="n">
-        <v>-377</v>
+      <c r="B142" s="11" t="n">
+        <v>-8.23970037453183</v>
+      </c>
+      <c r="C142" s="11" t="n">
+        <v>3.29289428076256</v>
+      </c>
+      <c r="D142" s="11" t="n">
+        <v>-9.40919037199125</v>
+      </c>
+      <c r="E142" s="11" t="n">
+        <v>-17.1521035598705</v>
+      </c>
+      <c r="F142" s="11" t="n">
+        <v>-16.4628820960699</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="1" t="n">
-        <v>-38</v>
-      </c>
-      <c r="C143" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D143" s="1" t="n">
-        <v>-33</v>
-      </c>
-      <c r="E143" s="1" t="n">
-        <v>-95</v>
-      </c>
-      <c r="F143" s="1" t="n">
-        <v>-365</v>
+      <c r="B143" s="11" t="n">
+        <v>-6.95970695970696</v>
+      </c>
+      <c r="C143" s="11" t="n">
+        <v>2.18120805369129</v>
+      </c>
+      <c r="D143" s="11" t="n">
+        <v>-7.08154506437768</v>
+      </c>
+      <c r="E143" s="11" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="F143" s="11" t="n">
+        <v>-15.625</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="1" t="n">
-        <v>-38</v>
-      </c>
-      <c r="C144" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D144" s="1" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E144" s="1" t="n">
-        <v>-79</v>
-      </c>
-      <c r="F144" s="1" t="n">
-        <v>-357</v>
+      <c r="B144" s="11" t="n">
+        <v>-6.79785330948122</v>
+      </c>
+      <c r="C144" s="11" t="n">
+        <v>2.43506493506493</v>
+      </c>
+      <c r="D144" s="11" t="n">
+        <v>-5.50847457627118</v>
+      </c>
+      <c r="E144" s="11" t="n">
+        <v>-12.480252764613</v>
+      </c>
+      <c r="F144" s="11" t="n">
+        <v>-14.9060542797495</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B145" s="1" t="n">
-        <v>-29</v>
-      </c>
-      <c r="C145" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D145" s="1" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E145" s="1" t="n">
-        <v>-89</v>
-      </c>
-      <c r="F145" s="1" t="n">
-        <v>-368</v>
+      <c r="B145" s="11" t="n">
+        <v>-5.12367491166078</v>
+      </c>
+      <c r="C145" s="11" t="n">
+        <v>3.17460317460319</v>
+      </c>
+      <c r="D145" s="11" t="n">
+        <v>-5.56701030927835</v>
+      </c>
+      <c r="E145" s="11" t="n">
+        <v>-13.5464231354642</v>
+      </c>
+      <c r="F145" s="11" t="n">
+        <v>-15.0326797385621</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B146" s="1" t="n">
-        <v>-29</v>
-      </c>
-      <c r="C146" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="D146" s="1" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E146" s="1" t="n">
-        <v>-84</v>
-      </c>
-      <c r="F146" s="1" t="n">
-        <v>-362</v>
+      <c r="B146" s="11" t="n">
+        <v>-5.01730103806228</v>
+      </c>
+      <c r="C146" s="11" t="n">
+        <v>3.73831775700935</v>
+      </c>
+      <c r="D146" s="11" t="n">
+        <v>-5.22088353413654</v>
+      </c>
+      <c r="E146" s="11" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="F146" s="11" t="n">
+        <v>-14.4915932746197</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B147" s="1" t="n">
-        <v>-30</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="D147" s="1" t="n">
-        <v>-24</v>
-      </c>
-      <c r="E147" s="1" t="n">
-        <v>-78</v>
-      </c>
-      <c r="F147" s="1" t="n">
-        <v>-373</v>
+      <c r="B147" s="11" t="n">
+        <v>-5.06756756756757</v>
+      </c>
+      <c r="C147" s="11" t="n">
+        <v>1.96374622356494</v>
+      </c>
+      <c r="D147" s="11" t="n">
+        <v>-4.74308300395256</v>
+      </c>
+      <c r="E147" s="11" t="n">
+        <v>-11.3868613138686</v>
+      </c>
+      <c r="F147" s="11" t="n">
+        <v>-14.5589383294301</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B148" s="1" t="n">
-        <v>-32</v>
-      </c>
-      <c r="C148" s="1" t="n">
+      <c r="B148" s="11" t="n">
+        <v>-5.2892561983471</v>
+      </c>
+      <c r="C148" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D148" s="1" t="n">
-        <v>-29</v>
-      </c>
-      <c r="E148" s="1" t="n">
-        <v>-77</v>
-      </c>
-      <c r="F148" s="1" t="n">
-        <v>-369</v>
+      <c r="D148" s="11" t="n">
+        <v>-5.5984555984556</v>
+      </c>
+      <c r="E148" s="11" t="n">
+        <v>-11.0315186246418</v>
+      </c>
+      <c r="F148" s="11" t="n">
+        <v>-14.1162968630451</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B149" s="1" t="n">
-        <v>-33</v>
-      </c>
-      <c r="C149" s="1" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D149" s="1" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E149" s="1" t="n">
-        <v>-75</v>
-      </c>
-      <c r="F149" s="1" t="n">
-        <v>-371</v>
+      <c r="B149" s="11" t="n">
+        <v>-5.37459283387622</v>
+      </c>
+      <c r="C149" s="11" t="n">
+        <v>-0.849858356940514</v>
+      </c>
+      <c r="D149" s="11" t="n">
+        <v>-5.09433962264151</v>
+      </c>
+      <c r="E149" s="11" t="n">
+        <v>-10.4748603351955</v>
+      </c>
+      <c r="F149" s="11" t="n">
+        <v>-13.9055472263868</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B150" s="1" t="n">
-        <v>-29</v>
-      </c>
-      <c r="C150" s="1" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D150" s="1" t="n">
-        <v>-30</v>
-      </c>
-      <c r="E150" s="1" t="n">
-        <v>-73</v>
-      </c>
-      <c r="F150" s="1" t="n">
-        <v>-374</v>
+      <c r="B150" s="11" t="n">
+        <v>-4.6031746031746</v>
+      </c>
+      <c r="C150" s="11" t="n">
+        <v>-2.74725274725275</v>
+      </c>
+      <c r="D150" s="11" t="n">
+        <v>-5.57620817843866</v>
+      </c>
+      <c r="E150" s="11" t="n">
+        <v>-9.95907230559345</v>
+      </c>
+      <c r="F150" s="11" t="n">
+        <v>-13.7096774193548</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B151" s="1" t="n">
-        <v>-32</v>
-      </c>
-      <c r="C151" s="1" t="n">
-        <v>-23</v>
-      </c>
-      <c r="D151" s="1" t="n">
-        <v>-28</v>
-      </c>
-      <c r="E151" s="1" t="n">
-        <v>-79</v>
-      </c>
-      <c r="F151" s="1" t="n">
-        <v>-365</v>
+      <c r="B151" s="11" t="n">
+        <v>-4.93827160493827</v>
+      </c>
+      <c r="C151" s="11" t="n">
+        <v>-3.06666666666666</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>-5.10018214936248</v>
+      </c>
+      <c r="E151" s="11" t="n">
+        <v>-10.5053191489362</v>
+      </c>
+      <c r="F151" s="11" t="n">
+        <v>-13.0730659025788</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="1" t="n">
-        <v>-29</v>
-      </c>
-      <c r="C152" s="1" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D152" s="1" t="n">
-        <v>-28</v>
-      </c>
-      <c r="E152" s="1" t="n">
-        <v>-85</v>
-      </c>
-      <c r="F152" s="1" t="n">
-        <v>-378</v>
+      <c r="B152" s="11" t="n">
+        <v>-4.41400304414004</v>
+      </c>
+      <c r="C152" s="11" t="n">
+        <v>-2.61437908496732</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <v>-5.00894454382826</v>
+      </c>
+      <c r="E152" s="11" t="n">
+        <v>-11.0103626943005</v>
+      </c>
+      <c r="F152" s="11" t="n">
+        <v>-13.1707317073171</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ152"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="960" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="961" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>301</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>286</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>461</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>432</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>623</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>570</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>774</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>696</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>909</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>836</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>946</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>1281</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1579</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1715</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>1832</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2087</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2253</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>2185</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>2396</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>2295</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2521</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>2412</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2626</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2519</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2729</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2638</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2823</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2756</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2940</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2860</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>3036</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>2964</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>3126</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>3066</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>3227</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>3180</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>3331</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>3313</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>3434</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>3420</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>3548</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>3520</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>3671</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>3636</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>3785</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3718</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>3907</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3845</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>4005</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3952</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>4137</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>4357</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>4257</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>4360</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>4569</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>4442</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>4675</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>4556</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>4786</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>4657</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>4888</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>4749</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>5007</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>4864</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>5121</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>4962</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>5234</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>5074</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>5357</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>5189</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>5491</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>5312</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>5623</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>5431</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>5557</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>5659</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>5777</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>5898</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="224">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -690,6 +690,15 @@
   <si>
     <t xml:space="preserve">De 85 y más años</t>
   </si>
+  <si>
+    <t xml:space="preserve">Año 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año 2021</t>
+  </si>
 </sst>
 </file>
 
@@ -43292,7 +43301,7 @@
   <dimension ref="A1:AMJ152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43305,14 +43314,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="7" t="n">
-        <v>2021</v>
+      <c r="B1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="AJY1" s="0"/>
       <c r="AJZ1" s="0"/>

--- a/etl/data/input/Datos_carga_semanal_demo.xlsx
+++ b/etl/data/input/Datos_carga_semanal_demo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="276">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -699,6 +699,162 @@
   <si>
     <t xml:space="preserve">Año 2021</t>
   </si>
+  <si>
+    <t xml:space="preserve">SM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM52</t>
+  </si>
 </sst>
 </file>
 
@@ -868,9 +1024,9 @@
   <dimension ref="A1:BM152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43298,10 +43454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ152"/>
+  <dimension ref="A1:AMJ54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43390,7 +43546,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>137</v>
@@ -43404,7 +43560,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>301</v>
@@ -43418,7 +43574,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>461</v>
@@ -43432,7 +43588,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>623</v>
@@ -43446,7 +43602,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>774</v>
@@ -43460,7 +43616,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>909</v>
@@ -43474,7 +43630,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>1042</v>
@@ -43488,7 +43644,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>1169</v>
@@ -43502,7 +43658,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>1281</v>
@@ -43516,7 +43672,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>1383</v>
@@ -43530,7 +43686,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>1516</v>
@@ -43544,7 +43700,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>1612</v>
@@ -43558,7 +43714,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>1728</v>
@@ -43572,7 +43728,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>1832</v>
@@ -43586,7 +43742,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>1953</v>
@@ -43600,7 +43756,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>2075</v>
@@ -43614,7 +43770,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>2185</v>
@@ -43628,7 +43784,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>2295</v>
@@ -43642,7 +43798,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>2412</v>
@@ -43656,7 +43812,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>2519</v>
@@ -43670,7 +43826,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>2638</v>
@@ -43684,7 +43840,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>2756</v>
@@ -43698,7 +43854,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>2860</v>
@@ -43712,7 +43868,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>2964</v>
@@ -43726,7 +43882,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>3066</v>
@@ -43740,7 +43896,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>3180</v>
@@ -43754,7 +43910,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>3313</v>
@@ -43768,7 +43924,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>3420</v>
@@ -43782,7 +43938,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>3520</v>
@@ -43796,7 +43952,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>3636</v>
@@ -43810,7 +43966,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>3718</v>
@@ -43824,7 +43980,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>3845</v>
@@ -43838,7 +43994,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>3952</v>
@@ -43852,7 +44008,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>4046</v>
@@ -43866,7 +44022,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>4146</v>
@@ -43880,7 +44036,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>4257</v>
@@ -43894,7 +44050,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>4360</v>
@@ -43908,7 +44064,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>4442</v>
@@ -43922,7 +44078,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>4556</v>
@@ -43936,7 +44092,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>4657</v>
@@ -43950,7 +44106,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>4749</v>
@@ -43964,7 +44120,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>4864</v>
@@ -43978,7 +44134,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>4962</v>
@@ -43992,7 +44148,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>5074</v>
@@ -44006,7 +44162,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>5189</v>
@@ -44020,7 +44176,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>5312</v>
@@ -44034,7 +44190,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>5431</v>
@@ -44045,7 +44201,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>5557</v>
@@ -44056,7 +44212,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>5659</v>
@@ -44067,7 +44223,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>5777</v>
@@ -44078,7 +44234,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>5898</v>
@@ -44089,7 +44245,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>6000</v>
@@ -44100,500 +44256,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>6544</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
